--- a/Inputs/IATI returns/MODARI award data - GHS (GAMRIF and UKVN).xlsx
+++ b/Inputs/IATI returns/MODARI award data - GHS (GAMRIF and UKVN).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wellcomecloud-my.sharepoint.com/personal/e_clegg_ukcds_org_uk/Documents/My Documents/GitHub/ODA_research_and_innovation/Inputs/IATI returns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{E4CC7446-E93A-46D5-86D9-2234D76FE536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{0FEC7A05-FC5C-4E3C-926A-FD65731D1C5A}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{E4CC7446-E93A-46D5-86D9-2234D76FE536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{A9FC78CA-E064-4160-A170-A3B1D7B4AB8B}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4496,10 +4496,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4592,7 +4593,7 @@
       <c r="W1" s="9"/>
       <c r="X1" s="9"/>
     </row>
-    <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -4654,7 +4655,7 @@
       <c r="W2" s="13"/>
       <c r="X2" s="13"/>
     </row>
-    <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -4716,7 +4717,7 @@
       <c r="W3" s="13"/>
       <c r="X3" s="13"/>
     </row>
-    <row r="4" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -4778,7 +4779,7 @@
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -4840,7 +4841,7 @@
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -4902,7 +4903,7 @@
       <c r="W6" s="13"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -4964,7 +4965,7 @@
       <c r="W7" s="13"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -5026,7 +5027,7 @@
       <c r="W8" s="13"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -5088,7 +5089,7 @@
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -5150,7 +5151,7 @@
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -5212,7 +5213,7 @@
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -5274,7 +5275,7 @@
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -5336,7 +5337,7 @@
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
     </row>
-    <row r="14" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -5398,7 +5399,7 @@
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
     </row>
-    <row r="15" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -5460,7 +5461,7 @@
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
     </row>
-    <row r="16" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -5512,7 +5513,7 @@
       <c r="W16" s="13"/>
       <c r="X16" s="13"/>
     </row>
-    <row r="17" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -5564,7 +5565,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -5616,7 +5617,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -5668,7 +5669,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>19</v>
       </c>
@@ -5720,7 +5721,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>20</v>
       </c>
@@ -5772,7 +5773,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>21</v>
       </c>
@@ -5830,7 +5831,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>22</v>
       </c>
@@ -5888,7 +5889,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>23</v>
       </c>
@@ -5946,7 +5947,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>24</v>
       </c>
@@ -6004,7 +6005,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>25</v>
       </c>
@@ -6062,7 +6063,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>26</v>
       </c>
@@ -6118,7 +6119,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>27</v>
       </c>
@@ -6176,7 +6177,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>28</v>
       </c>
@@ -6234,7 +6235,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>29</v>
       </c>
@@ -6292,7 +6293,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>30</v>
       </c>
@@ -6350,7 +6351,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>31</v>
       </c>
@@ -6718,7 +6719,7 @@
       <c r="W37" s="13"/>
       <c r="X37" s="13"/>
     </row>
-    <row r="38" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18">
         <v>37</v>
       </c>
@@ -6774,7 +6775,7 @@
       <c r="W38" s="14"/>
       <c r="X38" s="14"/>
     </row>
-    <row r="39" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
         <v>38</v>
       </c>
@@ -6830,7 +6831,7 @@
       <c r="W39" s="14"/>
       <c r="X39" s="14"/>
     </row>
-    <row r="40" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
         <v>39</v>
       </c>
@@ -6886,7 +6887,7 @@
       <c r="W40" s="14"/>
       <c r="X40" s="14"/>
     </row>
-    <row r="41" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
         <v>40</v>
       </c>
@@ -6942,7 +6943,7 @@
       <c r="W41" s="14"/>
       <c r="X41" s="14"/>
     </row>
-    <row r="42" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
         <v>41</v>
       </c>
@@ -6998,7 +6999,7 @@
       <c r="W42" s="14"/>
       <c r="X42" s="14"/>
     </row>
-    <row r="43" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
         <v>42</v>
       </c>
@@ -7060,7 +7061,7 @@
       <c r="W43" s="14"/>
       <c r="X43" s="14"/>
     </row>
-    <row r="44" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18">
         <v>43</v>
       </c>
@@ -7122,7 +7123,7 @@
       <c r="W44" s="14"/>
       <c r="X44" s="14"/>
     </row>
-    <row r="45" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
         <v>44</v>
       </c>
@@ -7184,7 +7185,7 @@
       <c r="W45" s="13"/>
       <c r="X45" s="13"/>
     </row>
-    <row r="46" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18">
         <v>45</v>
       </c>
@@ -7246,7 +7247,7 @@
       <c r="W46" s="13"/>
       <c r="X46" s="13"/>
     </row>
-    <row r="47" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
         <v>46</v>
       </c>
@@ -7308,7 +7309,7 @@
       <c r="W47" s="13"/>
       <c r="X47" s="13"/>
     </row>
-    <row r="48" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
         <v>47</v>
       </c>
@@ -7370,7 +7371,7 @@
       <c r="W48" s="13"/>
       <c r="X48" s="13"/>
     </row>
-    <row r="49" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
         <v>48</v>
       </c>
@@ -7428,7 +7429,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
         <v>49</v>
       </c>
@@ -7486,7 +7487,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
         <v>50</v>
       </c>
@@ -7544,7 +7545,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
         <v>51</v>
       </c>
@@ -7602,7 +7603,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
         <v>52</v>
       </c>
@@ -7660,7 +7661,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18">
         <v>53</v>
       </c>
@@ -7716,7 +7717,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18">
         <v>54</v>
       </c>
@@ -7774,7 +7775,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="18">
         <v>55</v>
       </c>
@@ -7832,7 +7833,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="18">
         <v>56</v>
       </c>
@@ -7890,7 +7891,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="18">
         <v>57</v>
       </c>
@@ -7948,7 +7949,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="18">
         <v>58</v>
       </c>
@@ -8006,7 +8007,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="18">
         <v>59</v>
       </c>
@@ -8060,7 +8061,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="18">
         <v>60</v>
       </c>
@@ -8112,7 +8113,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="18">
         <v>61</v>
       </c>
@@ -8164,7 +8165,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="18">
         <v>62</v>
       </c>
@@ -8216,7 +8217,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="18">
         <v>63</v>
       </c>
@@ -8270,7 +8271,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="18">
         <v>64</v>
       </c>
@@ -8324,7 +8325,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="18">
         <v>65</v>
       </c>
@@ -8376,7 +8377,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="18">
         <v>66</v>
       </c>
@@ -8430,7 +8431,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="18">
         <v>67</v>
       </c>
@@ -8482,7 +8483,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="18">
         <v>68</v>
       </c>
@@ -8534,7 +8535,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="18">
         <v>69</v>
       </c>
@@ -8588,7 +8589,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="18">
         <v>70</v>
       </c>
@@ -8640,7 +8641,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="18">
         <v>71</v>
       </c>
@@ -8692,7 +8693,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="18">
         <v>72</v>
       </c>
@@ -8746,7 +8747,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="18">
         <v>73</v>
       </c>
@@ -8802,7 +8803,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="18">
         <v>74</v>
       </c>
@@ -8854,7 +8855,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="18">
         <v>75</v>
       </c>
@@ -8906,7 +8907,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="18">
         <v>76</v>
       </c>
@@ -8960,7 +8961,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="18">
         <v>77</v>
       </c>
@@ -9014,7 +9015,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="18">
         <v>78</v>
       </c>
@@ -9068,7 +9069,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="18">
         <v>79</v>
       </c>
@@ -9120,7 +9121,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="18">
         <v>80</v>
       </c>
@@ -9172,7 +9173,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="18">
         <v>81</v>
       </c>
@@ -9224,7 +9225,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="18">
         <v>82</v>
       </c>
@@ -9276,7 +9277,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="18">
         <v>83</v>
       </c>
@@ -9324,7 +9325,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="18">
         <v>84</v>
       </c>
@@ -9372,7 +9373,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="18">
         <v>85</v>
       </c>
@@ -9420,7 +9421,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="18">
         <v>86</v>
       </c>
@@ -9468,7 +9469,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="18">
         <v>87</v>
       </c>
@@ -9516,7 +9517,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="18">
         <v>88</v>
       </c>
@@ -9562,7 +9563,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="18">
         <v>89</v>
       </c>
@@ -9620,7 +9621,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="18">
         <v>90</v>
       </c>
@@ -9678,7 +9679,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="18">
         <v>91</v>
       </c>
@@ -9730,7 +9731,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="18">
         <v>92</v>
       </c>
@@ -9784,7 +9785,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="18">
         <v>93</v>
       </c>
@@ -9838,7 +9839,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="18">
         <v>94</v>
       </c>
@@ -9890,7 +9891,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="18">
         <v>95</v>
       </c>
@@ -9942,7 +9943,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="18">
         <v>96</v>
       </c>
@@ -9996,7 +9997,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="18">
         <v>97</v>
       </c>
@@ -10050,7 +10051,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="18">
         <v>98</v>
       </c>
@@ -10108,7 +10109,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="18">
         <v>99</v>
       </c>
@@ -10162,7 +10163,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="18">
         <v>100</v>
       </c>
@@ -10216,7 +10217,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="18">
         <v>101</v>
       </c>
@@ -10274,7 +10275,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="18">
         <v>102</v>
       </c>
@@ -10328,7 +10329,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="18">
         <v>103</v>
       </c>
@@ -10382,7 +10383,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="18">
         <v>104</v>
       </c>
@@ -10440,7 +10441,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="18">
         <v>105</v>
       </c>
@@ -10492,7 +10493,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="18">
         <v>106</v>
       </c>
@@ -10544,7 +10545,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="18">
         <v>107</v>
       </c>
@@ -10598,7 +10599,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="18">
         <v>108</v>
       </c>
@@ -10650,7 +10651,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="18">
         <v>109</v>
       </c>
@@ -10704,7 +10705,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="18">
         <v>110</v>
       </c>
@@ -10758,7 +10759,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="18">
         <v>111</v>
       </c>
@@ -10810,7 +10811,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="18">
         <v>112</v>
       </c>
@@ -10864,7 +10865,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="18">
         <v>113</v>
       </c>
@@ -10918,7 +10919,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="18">
         <v>114</v>
       </c>
@@ -10972,7 +10973,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="18">
         <v>115</v>
       </c>
@@ -11026,7 +11027,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="18">
         <v>116</v>
       </c>
@@ -11080,7 +11081,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="18">
         <v>117</v>
       </c>
@@ -11134,7 +11135,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="18">
         <v>118</v>
       </c>
@@ -11186,7 +11187,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="18">
         <v>119</v>
       </c>
@@ -11240,7 +11241,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="18">
         <v>120</v>
       </c>
@@ -11294,7 +11295,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="18">
         <v>121</v>
       </c>
@@ -11348,7 +11349,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="18">
         <v>122</v>
       </c>
@@ -11400,7 +11401,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="18">
         <v>123</v>
       </c>
@@ -11454,7 +11455,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="18">
         <v>124</v>
       </c>
@@ -11914,7 +11915,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="18">
         <v>132</v>
       </c>
@@ -11964,7 +11965,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="18">
         <v>133</v>
       </c>
@@ -12014,7 +12015,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="18">
         <v>134</v>
       </c>
@@ -12064,7 +12065,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="18">
         <v>135</v>
       </c>
@@ -12114,7 +12115,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="18">
         <v>136</v>
       </c>
@@ -30369,12 +30370,29 @@
       <c r="T1000" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T137" xr:uid="{202AB705-7DF7-4EB4-9C34-ED7EC588D9EA}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="BBSRC"/>
+        <filter val="EPSRC"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E6713CC7F31D7C498DF06765AF1263E4" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="366367cd6cb5cdab93a9cfb77f1d8fd4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="9e449739-2858-4f41-8e5c-7dc6df20853e" xmlns:ns4="05c15269-663a-4da2-bb2b-1510839404b9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bea9f5ec70232b46c2a1df78798852fa" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -30614,15 +30632,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -30633,6 +30642,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C49041-F246-4B03-A83A-30F6FFFE0FD8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDF78AE5-A260-457C-8C49-38550BF821A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30652,16 +30671,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C49041-F246-4B03-A83A-30F6FFFE0FD8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D95885E-3D3E-41C7-BCB5-60294B0AB1EE}">
   <ds:schemaRefs>

--- a/Inputs/IATI returns/MODARI award data - GHS (GAMRIF and UKVN).xlsx
+++ b/Inputs/IATI returns/MODARI award data - GHS (GAMRIF and UKVN).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wellcomecloud-my.sharepoint.com/personal/e_clegg_ukcds_org_uk/Documents/My Documents/GitHub/ODA_research_and_innovation/Inputs/IATI returns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{E4CC7446-E93A-46D5-86D9-2234D76FE536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{A9FC78CA-E064-4160-A170-A3B1D7B4AB8B}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{E4CC7446-E93A-46D5-86D9-2234D76FE536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{C0E54C10-5EC9-4666-A15E-DF7593E4292B}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Data Entry sheet" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Data Entry sheet'!$A$1:$T$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Data Entry sheet'!$A$1:$T$125</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="683">
   <si>
     <t>No.</t>
   </si>
@@ -981,153 +981,10 @@
     <t>https://d-portal.org/ctrack.html#view=act&amp;aid=XM-DAC-301-2-109057-001</t>
   </si>
   <si>
-    <t>GB-GOV-10-GAMRIF-WP4-UK-Argentina</t>
-  </si>
-  <si>
-    <t>BBSRC</t>
-  </si>
-  <si>
-    <t>BB/T00472X/1</t>
-  </si>
-  <si>
-    <t>Mapping the patterns and drivers of antibiotic use and environmental resistance in the Argentine beef industry.</t>
-  </si>
-  <si>
-    <t>The project will develop evidence based interventions to reduce the antimicrobial resistance (AMR) in the environment originating from beef cattle production systems. Currently the contribution of the beef industry to environmental AMR has been very poorly characterized in spite of the fact that the beef farming is the most significant and widespread livestock sector in Argentina. Increasing beef exports by 160% over the next decade is a key target for economic development (www.OECD.org) but this must be achieved without resorting to unsustainable use of antibiotics to support productivity. There is increasing global scrutiny on antibiotic usage in livestock due to its local impact on AMR in the environment and the wider potential impact on the end consumer. National and international antibiotic surveillance of antibiotic use are developing to safeguard consumers in key export markets such as Europe, Japan and China. It is therefore essential that the Argentine beef industry develops robust farm level benchmarking and best practice guidelines for antibiotic usage to evidence the low risk of beef production and the quality of the final product.
- This project will directly contribute to the development of policy in this area through the following objectives:
- 1) Identify and describe all data sources relating to veterinary antibiotic prescribing, antibiotic sales and antibiotic usage in Argentinian beef production. This will cover all levels of the value chain from pharmaceutical manufacturer, distributor/supplier, veterinary practice, farm, processor, exporter and retailer. 
- 2) Categorise beef farming systems by farm management and animal husbandry practices and quantify antibiotic usage for each farm within each category using all the available data. This information will be collected alongside AMU data to facilitate risk factor analysis in Obj3 and to provide data for economic analysis in Obj4
- 3) Understand the relationship of bacterial AMR diversity, and community structure in the beef farming environment with antibiotic usage patterns in the farms. This will be achieved through a stratified sampling approach and a combination of molecular microbiology approaches undertaken by ARG and UK partners.
- 4) Co-develop policy and intervention strategies to reduce AMR selection. This will be based on findings from Obj3. The interventions will be subjected to an economic analysis to assess their cost benefit throughout the value chain.
- The project will integrate expertise in multiple academic disciplines from both the UK and Argentina along with direct input from clinical veterinarians from UK and Argentina, antibiotic regulatory authorities (SENASA) and commercial beef producers (Salentine Argentina). This will enable the project to develop truly transdisciplinary research with direct, tangible benefits to Argentina and wider applications to cattle production in LMIC’s globally. Throughout the development of this project proposal emphasis has been placed upon making the outcomes of the project transferable to other LMIC’s.</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
     <t>University of Liverpool</t>
   </si>
   <si>
-    <t>Centro de Investigación Veterinaria de Tandil</t>
-  </si>
-  <si>
-    <t>Argentina; United Kingdom</t>
-  </si>
-  <si>
-    <t>https://gtr.ukri.org/projects?ref=BB/T00472X/1</t>
-  </si>
-  <si>
-    <t>BB/T004452/1</t>
-  </si>
-  <si>
-    <t>Developing a conceptual framework to improve understanding of AMR in livestock systems: translating research into policy and practice</t>
-  </si>
-  <si>
-    <t>The project aims to generate new ways of considering AMR in farmed and natural environments, focusing on a Driving Force–Pressure–State–Exposure–Effect–Action (DPSEEA) framework to explore the linkages between selection for and dissemination of antimicrobial resistance (AMR) and the processes that drive this phenomenon. We will focus on feedlot beef production systems, as an exemplar, which are increasingly being used in Argentina and low and middle income countries (LMICs) in Latin America to replace less intensive, grass fed, low antimicrobial usage (AMU) systems. Feedlot systems often rely on antibiotic metaphylaxis to combat health issues caused by poor sanitary conditions and stress to the animals as well as the use of antimicrobials as growth promoters. With thousands of animals kept within small areas large amounts of manure are generated which can impact surrounding soil and water resources with the potential for wider dissemination and risk of human exposure and environmental transmission of AMR pathogens. Cattle faeces can also be disseminated by air, under dry conditions dust (faeces) problems are common. The research consortium is made up of AMR experts from Argentina and the UK, from government institutions and universities and includes clinical, veterinary and environmental microbiologists, specialists in bioinformatics and genomics, agricultural economics, evidence synthesis, mathematical modelling and AMR policy. This interdisciplinary team will enable a holistic approach to the problem, integrating understanding of 1) economic and human behaviours that drive AMU and livestock management practice, 2) evolutionary and ecological processes that lead to increased AMR in animal faeces and environmental matrices such as soil and water 3) mechanistic insights into resistance mechanisms and evolution of resistance within impacted environments and 4) human exposure risk associated with environmental and food borne human exposure. We will take a systematic approach to establish what is already known about AMU and AMR in feedlot systems and in cattle farming associated environments using evidence mapping methodologies. This data will be used to populate the conceptual framework, highlighting where knowledge gaps exist, and in development of an underpinning mathematical model using critical control, info-gap and adaptive management theories. These approaches are used where there are uncertainties in data but are still able to facilitate decision making and management strategies in the face of uncertainty and complexity. Data gaps will be met by outputs from this project, particularly in the driving forces – pressure - state part of the framework. The consortium also includes an expert in AMR policy, and we will fully integrate translation of outputs and knowledge collated within the project to policy outputs, with engagement with policy makers included within a policy work package.
- Objectives 
- 1). Undertake an evidence mapping exercise to establish what relevant data exists in the peer-reviewed and grey literature. 
- 2). Undertake intervention studies in feedlot farms to test the impact of metaphylaxis during cattle entry to the farm, growth promoter usage and vaccination on AMR in faeces. 
- 3). Compare high and low AMU feed-lot systems in terms of AMR endpoints in cattle. 
- 4). Characterise AMR in environmental matrices on farms and surrounding areas including in soil and water. 
- 5). Undertake comparative genomic and metagenomic analyses of resistant isolates and total microbial communities. 
- 6). Generate Marginal Abatement Cost Curves (MACC) for key interventions to assess cost – benefits of interventions to reduce AMU and AMR. 
- 7). Generate policy outputs, co-designing these through engagement with scientists and policy makers.</t>
-  </si>
-  <si>
-    <t>University of Exeter</t>
-  </si>
-  <si>
-    <t>Administración Nacional de Laboratorios e Institutos de Salud “Dr Carlos G Malbrán”; Rothamsted Research at University of Edinburgh</t>
-  </si>
-  <si>
-    <t>https://gtr.ukri.org/projects?ref=BB/T004452/1</t>
-  </si>
-  <si>
-    <t>BB/T004592/1</t>
-  </si>
-  <si>
-    <t>FARMS-SAFE: Future-proofing Antibacterial resistance Risk Management Surveillance and Stewardship in the Argentinian Farming Environment</t>
-  </si>
-  <si>
-    <t>To achieve the call’s overall aim of delivering research that can be used to reduce the drivers and risk of ABR in the environment from agricultural sources in Argentina and the surrounding region, our interdisciplinary consortium has the following research objectives (ROs): 
- 1. Understand how farmers manage animal health and the cultural, economic, and regulatory factors influencing their use of ABs and the risk of ABR
- 2. Provide the first systematic measurements of which ABs and other veterinary medicines are being used by livestock producers in Argentina, and in what quantities and ways by different sectors and enterprise types
- 3. Quantify the levels and specific types of ABR bacteria in livestock, the on-farm and near-farm environment and how these vary by sector, enterprise type and disease management practice
- 4. Correlate ABU with ABR and identify management practices that influence the prevalence of ABR in animals and on farms along with the presence of ABs and ABR in the near-farm environment
- 5. Support development of a risk-based approach to targeting ABR surveillance and regulation 
- In terms of addressing the call’s priority areas, we will create a framework for surveillance and reporting on ABU and ABR and support options for animal husbandry and welfare to support AB stewardship to minimise the environmental impacts of ABR. In so doing, we have considered the implications of land use and socio-economic factors on the sustainability and efficacy of proposed strategies to reduce the impact of agriculture on the emergence and spread of ABR. We will also satisfy specific evidence gaps identified during the funders’ workshop in Buenos Aires, particularly regarding accurate and reliable data about ABU on farms including dosage, timing and life cycle as well as farmer engagement with ABU good practice guidance, patterns of ABR in livestock farms and the environmental impact of specific farming practices as well as improving levels of compliance with regulations. 
- To deliver this project cost effectively but with maximum academic and translational impact, we will focus on 4 pathogens highlighted in the Argentinian Strategy for Control of AMR in order to reduce AMR in the context of farm/environment/human transmission: E. coli, Enterococcus, Salmonella and Campylobacter. All samples we collect, however, will be stored for future use, so that we or other researchers can retrospectively study other pathogens, perform metagenomic sequencing or measure ABR gene abundance if funds become available in the future. We will also focus our research by animal species, including poultry and pigs (which are considered to have highest ABU) as well as dairy cattle (for which almost no information is available in Argentina). 
- We will achieve our objectives via five interlocking workstreams (WSs):
- WS1 will use a national survey to understand farmers’ approaches to animal health, waste management practices and awareness of ABR. 
- WS2 will use data from WS1 to focus on more data collection in the form of in-depth semi-structured interviews and ethnography to get a detailed understanding of farming cultures and animal husbandry as drivers of AB usage and ABR. 
- WS3 will undertake surveillance of AB usage on farms and link with WS2 to identify risk factors for AB usage. WS4 will undertake surveillance of ABR bacteria and AB contamination on farms and in the near-farm environment, and will assess correlations between AB usage and ABR and identify risk factors for these measured parameters. 
- WS5 will map regulatory actors for AB usage and ABR, and develop a model to summarise ABR risks defined in other WSs. We will then use stakeholder workshops to identify the best way to present these risks to regulatory actors.</t>
-  </si>
-  <si>
-    <t>University of Bristol</t>
-  </si>
-  <si>
-    <t>Universidad Nacional de La Plata; King's College London; University of Bristol</t>
-  </si>
-  <si>
-    <t>https://gtr.ukri.org/projects?ref=BB/T004592/1</t>
-  </si>
-  <si>
-    <t>BB/T004436/1</t>
-  </si>
-  <si>
-    <t>Environmental and Economic Impacts of Improved Antibiotics Stewardship in Poultry Systems</t>
-  </si>
-  <si>
-    <t>Abstract: We will use a One Health approach to understand and quantify the environmental and economic impacts (costs and benefits) of modified antimicrobial use and to co-design system interventions that are feasible, acceptable and cost-effective for producers. We take a whole supply/value chain perspective, incorporating the role of all actors from breeding to retail, to define these interventions. Our interdisciplinary research will inform rational use and the development of decision support tools to inform production (e.g. on farm). We will develop the notion of antimicrobial stewardship as an industry (voluntary) approach, but we also consider other mandatory and market based policy scenarios for measure compliance. Our methodologies will consider industry-wide effects and will be appropriate for use in other LMIC contexts for data collection and prioritisation of poultry sector antimicrobial use (AMU) interventions. 
- Objectives: 
- 1. To determine the drivers for antimicrobial use (AMU) using participatory appraisal and economic and ethnographic assessment at key stages along the poultry food system: breeders, farmers, feed suppliers, animal health workers, retailers and consumers 
- 2. To map the socio-economic context and identify hotspots within the poultry meat food system, by quantifying AMU and antimicrobial resistance (AMR) at key points of the system
- 3. To undertake in vivo and in vitro studies to establish AMR prevalence and rational AMU protocols (including potential alternatives) that minimize AMR selection and dispersion.
- 4. To determine the productive/economic and environmental costs and benefits of AMU interventions (including withdrawal and alternatives) and impact on the poultry industry value chain. To develop a Marginal abatement cost curve to illustrate the relative cost-effectiveness of interventions to modify AMU and control AMR.
- 5. To use this evidence to design and assess a decision-making tool to help the poultry industry from Argentina (and other LMICs) evaluate AMU/AMR interventions and design stewardship initiatives covering broiler meat food industry actors. To map the wider economic and social trajectory of the Argentinian and LMIC poultry industries and likely AMU futures. 
- These objectives will be met in five interconnected work packages. Objective 1 will be led by SRUC with input from UoE, IIByT, ICTA, SENASA and INTA. It will identify economic, behavioural and environmental external drivers of AMU/AMR; Objective 2 led by INTA will investigate biological drivers of AMU and AMR in the broiler meat system in its entirety from breeding to retail. Both objectives will help identify potential interventions and activities to promote rational/reduced AMU. Objective 2 and 3 involve Argentinian institutes (INTA, ANLIS, SENASA, IBIMOL, ICTA and IIByT, as well as the commercial partners Soychú and INDACOR) contributing to metadata and sample collection and determining the presence of AMR genes and associated bacteria in the context of the broiler meat chain. We will quantify the abundance and diversity of AMR along this chain, supported by in vivo and in vitro studies. Samples will be collected and microbiological and metagenomic data will be analysed in collaboration with University of Edinburgh, as part of postdoctoral training/exchanges. Objective 3 will determine how AMU interventions drive AMR, quantifying shifts in AMR genes and reservoir bacteria. Experimental trials will be planned around previous work by partners and results from O1/O2. Objective 4 will be led by UoE/INTA and will determine the cost -benefit relationship and economic impacts of AMU interventions, based on the expected results from O1, 2 and 3. O4 allows pressure points for AMU and AMR to be identified and visualised in economic terms, which in turn aids the co-design of interventions and stewardship planning with stakeholders for Objective 5. O5 will be a joint workpackage (INTA/SENASA and UoE) to develop decision support for industry and policy and will be led by UoE and INTA/SENASA.</t>
-  </si>
-  <si>
     <t>University of Edinburgh</t>
-  </si>
-  <si>
-    <t>Instituto Nacional de Tecnología Agropecuaria; Scotland's Rural College (SRUC)</t>
-  </si>
-  <si>
-    <t>https://gtr.ukri.org/projects?ref=BB/T004436/1</t>
-  </si>
-  <si>
-    <t>BB/T004681/1</t>
-  </si>
-  <si>
-    <t>Role of poultry litter in antimicrobial resistance (AMR): associated risks and potential mitigation strategies</t>
-  </si>
-  <si>
-    <t>This project intends to use a "One Health" approach to understand and quantify the environmental impact of antimicrobial resistance in animal production and the ways of dissemination to the environment and humans. We take a holistic perspective of the production chain, incorporating the role of each of the actors involved, from reproduction to retail, to characterize the attitude towards the use of antimicrobials and identify factors that influence the selection and transmission of antimicrobial resistance. 
- The presence of microorganisms resistant to antimicrobials in different food animals represents a high risk to public health, since these microorganisms can act as agents of zoonotic diseases or function as a reservoir of resistance genes for human and animal pathogens. Although it is understood that the use of antimicrobials in animal production is related to the presence of resistant bacteria in humans, the transfer pathways of this resistance are not completely defined. The waste generated by animal production, such as the bed of broiler chickens, represents a potential reservoir of resistance not only within the farm but also towards the environment and humans. Considering that the preserved bed is reused up to 5 production cycles, and then it is used as a fertilizer, it represents a potential source of AMR. Before being used as a fertilizer, the beds are treated in situ to reduce the burden of pathogens. It is likely that the composting process reduces antibiotic residues inside the bed, but it is necessary to determine the dynamics of bacterial populations during that process and the time needed to reduce the burden of antimicrobial residues, resistance genes and resistance genes carrier bacteria. 
- The main objective of this work is to allow an efficient control of the resistance in an economically viable way that can be applied to Argentina and to low- and middle-income countries. In order to comply with the aforementioned objective, it is proposed to use productive indicators (weight gain, conversion, production efficiency), microbiological and genomic targets, along with parameters of animal welfare (mortality, morbidity, foot quality) and environmental quality (ammonia, powder). Our interdisciplinary research will inform the rational use and development of decision support tools to inform producers of different levels of production and promote the rational use of antimicrobials and at the same time design interventions (reduction / withdrawal of antimicrobials, uses of alternatives) of systems that are feasible, acceptable and profitable for producers. 
- The key aim of the proposal is to develop a framework for best practice for commercial broiler farms in Argentina and other LMICs. This framework will be based on empirical data collected from commercial broiler farms in Argentina and from laboratory-scale experiments (UK and Argentina) and developed via a quantitative model for spread and amelioration of AMR. We aim to answer the following questions: RQ1: What are the drivers of AMR within broiler sheds? 
- RQ2: To what extent can we reduce resistance profiles through changes in litter removal rates and composting regimes in broiler poultry litter? 
- RQ3: How well do current welfare and litter management practices minimise the AMR risk? 
- RQ4: Are other chemicals used on the farm that may drive AMR (e.g. quaternary ammonium compounds, other antimicrobials, heavy metals, biocides)? 
- RQ5: Do insects that inhabit the litter and/or transient visitors increase the prevalence of AMR in the sheds? 
- RQ6: Can we add feed additives (i.e. phytochemicals) to reduce fitness of AMR bacteria or their AMR genes in the birds and the litter? Would litter re-use decrease AMR if we add additives that remain active in the faeces? 
- In order to answer the above mentioned questions we have proposed the following objectives: Objective 1: To develop a quantitative model to predict AMR through the litter cycles taking into account the production cycle (differences in environment/husbandry/animal density) and subsequent composting. 
- Objective 2: To develop a framework for best practice for commercial broiler farms in Argentina and other LMICs. This will be predicated on the outputs relating to each RQ and to objective 1.</t>
-  </si>
-  <si>
-    <t>University of Nottingham</t>
-  </si>
-  <si>
-    <t>University of Lincoln
-NERC Centre for Ecology and Hydrology
-University of Leeds
- NERC Centre for Ecology and Hydrology
- University of Leeds</t>
-  </si>
-  <si>
-    <t>https://gtr.ukri.org/projects?ref=BB/T004681/1</t>
   </si>
   <si>
     <t xml:space="preserve">GB-GOV-10-GAMRIF-WP5-FIND
@@ -2431,159 +2288,6 @@
   </si>
   <si>
     <t>https://gtr.ukri.org/projects?ref=971558</t>
-  </si>
-  <si>
-    <t>GB-GOV-10-UKVN-FVMRH-EPSRC</t>
-  </si>
-  <si>
-    <t>EPSRC</t>
-  </si>
-  <si>
-    <t>EP/R013764/1</t>
-  </si>
-  <si>
-    <t>Future Vaccine Manufacturing Hub: Advancing the manufacture and deployment of cost effective vaccines</t>
-  </si>
-  <si>
-    <t>Vaccine manufacturing systems have undergone evolutionary optimisation over the last 60 years, with occasional disruptions due to new technology (e.g. mammalian cell cultures replacing egg-based systems for seasonal influenza vaccine manufacture). Global vaccination programmes have been a great success but the production and distribution systems from vaccines still suffer from costs associated with producing and purifying vaccines and the need to store them between 2 and 8 degrees C. This can be a challenge in the rural parts of low and middle income countries where 24 million children do not have access to appropriate vaccinations every year. An additional challenge is the need to rapidly respond to new threats, such as the Ebola and Zika viruses, that continue to emerge. The development of a &amp;quot;first responder&amp;quot; strategy for the latter means that there are two different types of challenges that future vaccine manufacturing systems will have to overcome: 
-1. How to design a flexible modular production system, that once a new threat is identified and sequenced, can switch into manufacturing mode and produce of the order of 10,000 doses in a matter of weeks as part of localised containment strategy? 
-2. How to improve and optimise existing manufacturing processes and change the way vaccines are manufactured, stabilised and stored so that costs are reduced, efficiencies increased and existing and new diseases prevented effectively? 
-Our proposed programme has been developed with LMIC partners as an integrated approach that will bring quick wins to challenge 2 while building on new developments in life sciences, immunology and process systems to bring concepts addressing challenge 1 to fruition.
-Examples of strategies for challenge 1 are RNA vaccines. The significant advantage of synthetic RNA vaccines is the ability to rapidly manufacture many thousands of doses within a matter of weeks. This provides a viable business model not applicable to other technologies with much longer lag phases for production (viral vectors, mammalian cell culture), whereby procurement of the vaccine can be made on a needs basis avoiding the associated costs of stockpiling vaccines for rapid deployment, monitoring their on going stability and implementing a cycle of replacement of expired stock. In addition, low infrastructure and equipment costs make it feasible to establish manufacture in low-income settings, where all required equipment has potential to be run from a generator driven electrical supply in the event of power shortage. This fits the concept of a distributed, flexible platform technology, in that once a threat is identified, the specific genetic code can be provided to the manufacturing process and the doses of the specific vaccine can be produced without delay. Additional concepts that we will explore in this category include the rapid production of yeast and bacterially expressed particles that mimic membrane expressed components of pathogenic viruses and bacteria.
-Examples of strategies for challenge 2 build on our work on protein stabilisation which has been shown to preserve the function of delicate protein enzymes at temperatures over 100 degrees C. We shall exploit this knowledge to develop new vaccine stabilisation and formulation platforms. These can be used in two ways: (a) to support the last few miles of delivery from centralised cold chains to patients through reformulation and (b) for direct production of thermally stable forms, i.e. vaccines that retain their activity for months despite being not being refrigerated. 
-We believe that the best way to deliver these step changes in capability and performance is through a team-based approach that applies deep integration in two dimensions: between UK and LMIC partners to ensure that all the LMIC considerations are &amp;quot;baked in&amp;quot; from the start and between different disciplines accounting for the different expertise that will be required to meet the challenges.</t>
-  </si>
-  <si>
-    <t>Imbio; LLC; Enesi Pharma; Excivion; University of Leeds; ImmBio</t>
-  </si>
-  <si>
-    <t>https://gtr.ukri.org/projects?ref=EP/R013764/1</t>
-  </si>
-  <si>
-    <t>EP/R013756/1</t>
-  </si>
-  <si>
-    <t>The Future Vaccine Manufacturing Research Hub (Vax-Hub)</t>
-  </si>
-  <si>
-    <t>Vaccines are the most successful public health initiative of the 20th century. They save millions of lives annually, add billions to the global economy and extended life expectancy by an average of 30 years. Even so, the UN estimates that globally 6 million children each year die before their 5th birthday. While vaccines do exist to prevent these deaths, it is limitations in manufacturing capacity, technology, costs and logistics that prevent us for reaching the most vulnerable. The UK is a world leader in vaccine research and has played a significant leadership role in several public health emergencies, most notably the Swine Flu pandemic in 2009 and the recent Ebola outbreak in West Africa. While major investment has been made into early vaccine discovery - this has not been matched in the manufacturing sciences or capacity. Consequently, leading UK scientists are forced to turn overseas to commercialise their products.
-Therefore, this investment into The Future Vaccine Manufacturing Hub will enable our vision to make the UK the global centre for vaccine discovery, development and manufacture. We will create a vaccine manufacturing hub that brings together a world-class multidisciplinary team with decades of cumulative experience in all aspects of vaccine design and manufacturing research. This Hub will bring academia, industry and policy makers together to propose radical change in vaccine development and manufacturing technologies, such that the outputs are suitable for Low and Middle Income Countries.
-The vaccine manufacturing challenges faced by the industry are to (i) decrease time to market, (ii) guarantee long lasting supply - especially of older, legacy vaccine, (iii) reduce the risk of failure in moving between different vaccine types, scales of manufacture and locations, (iv) mitigating costs and (v) responding to threats and future epidemics or pandemics. This work is further complicated as there is no generic vaccine type or manufacturing approach suitable for all diseases and scenarios. Therefore this manufacturing Hub will research generic tools and technologies that are widely applicable to a range of existing and future vaccines.
-The work will focus on two main research themes (A) Tools and Technologies to de-risk scale-up and enable rapid response, and (B) Economic and Operational Tools for uninterrupted, low cost supply of vaccines. The first research theme seeks to create devices that can predict if a vaccine can be scaled-up for commercial manufacture before committing resources for development. It will include funds to study highly efficient purification systems, to drive costs down and use genetic tools to increase vaccine titres. Work in novel thermo-stable formulations will minimise vaccine wastage and ensure that vaccines survive the distribution chain. The second research theme will aim to demystify the economics of vaccine development and distribution and allow the identification of critical cost bottlenecks to drive research priorities. It will also assess the impact of the advances made in the first research theme to ensure that the final cost of the vaccine is suitable for the developing world. 
-The Hub will be a boon for the UK, as this research into generic tools and technologies will be applicable for medical products intended for the UK and ensure that prices remain accessible for the NHS. It will establish the UK as the international centre for end-to-end vaccine research and manufacture. Additionally, vaccines should be considered a national security priority, as diseases do not respect international boundaries, thus this work into capacity building and rapid response is a significant advantage. 
-The impact of this Hub will be felt internationally, as the UK reaffirms its leadership in Global Health and works to ensure that the outputs of this Hub reach the most vulnerable, especially children.</t>
-  </si>
-  <si>
-    <t>National Institute for Biological Standards and Control (NIBSC); Phenotypeca; Sartorius; Huvepharma; BioIndustry Association; Enesi Pharma; Vaccitech Ltd; VABIOTECH; MSD Wellcome Trust Hilleman Laboratories; Serum Institute of India; Vietnam Ministry of Health; PT Bio Farma; Univercells Ltd; Vironova; London Sch of Hygiene and Trop Medicine; PALL Europe; Merck; Vinnova</t>
-  </si>
-  <si>
-    <t>https://gtr.ukri.org/projects?ref=EP/R013756/1</t>
-  </si>
-  <si>
-    <t>GB-GOV-10-UKVN-BBSRC</t>
-  </si>
-  <si>
-    <t>BB/R019975/1</t>
-  </si>
-  <si>
-    <t>Accelerated development of a safe and easily manufactured Q fever vaccine</t>
-  </si>
-  <si>
-    <t>Q fever is an important and highly contagious disease of worldwide importance affecting both livestock and humans caused by the intracellular Gram-negative bacterium, Coxiella burnetii. Infection of humans occurs following exposure to as few as 1-10 bacteria and can result in both acute and chronic forms of disease. Infections can result in death, especially in the elderly or immunocompromised. Livestock, in particular sheep and goats, are the major source of human infections where infection can cause abortion, stillbirth and delivery of weak offspring. The loss of lambs and kids can result in devastating economic losses to the livelihoods of farmers in Europe as well as LMIC countries, particularly during abortion storms where up to 35% losses can occur. 
-Vaccines are currently considered the most effective way to control Q fever, and vaccines based on inactivated C. burnetii organisms are commercially available for use in both ruminants and humans. However, the safety of these vaccines is a major issue considering that severe local and systemic reactions occur post-vaccination in humans previously exposed to the bacteria and vaccination of ruminants is associated with significant production losses. Furthermore, manufacture of these vaccines involves culture of the organisms, which has both cost and safety issues. These issues have resulted in limited use of these vaccines. There is therefore an urgent need to develop safe, effective and easily manufactured vaccines to control Q fever in both humans and livestock species.
-To this end, attempts have been made to develop subunit vaccines targeting key C. burnettii proteins which would be safer to manufacture and could be engineered to induce fewer side effects following vaccination. However, current approaches to subunit vaccine development have been severely hampered by a lack of knowledge of the appropriate bacterial proteins to target.
-In this project, we will use novel peptide chip array technology to identify the key C. burnetii proteins recognised by antibodies from sheep and goats vaccinated with the current protective, but unsafe commercial vaccine in a high throughput and detailed manner. These antibody responses will be compared with those generated by a non-protective C. burnetii vaccine which is based on a different (non-virulent) form of the bacteria. By comparing antibody responses from protected and non-protective vaccines, bacterial proteins which are specifically targeted by the protective vaccine will be identified. Synthetic versions of these proteins will then be generated and subunit vaccines based on pools of these proteins will be tested in a sheep challenge model. This will provide preliminary safety and efficacy data to inform future Q fever vaccine development programmes.</t>
-  </si>
-  <si>
-    <t>Moredun Research Institute</t>
-  </si>
-  <si>
-    <t>Ceva Sante Animale; Friedrich Loeffler Institute</t>
-  </si>
-  <si>
-    <t>https://gtr.ukri.org/projects?ref=BB/R019975/1</t>
-  </si>
-  <si>
-    <t>BB/R020116/1</t>
-  </si>
-  <si>
-    <t>One Health and accelerating Vaccines for Ebola and Lassa (OVEL)</t>
-  </si>
-  <si>
-    <t>The One Health and accelerating Vaccines for Ebola and Lassa (OVEL) is a focused comparative One Health vaccine project based on the need to understand future threats of zoonotic virus spill-overs from their natural animal reservoirs to humans. This information is important to develop the most effective protective vaccines to prevent future human outbreaks. 
-A disproportionally high number of emerging and re-emerging diseases are caused by RNA viruses and many are carried naturally by animals (Heeney, J Internal Med, 2006). Their genomes are notoriously variable due to the high mutation rate that occurs during replication. These accumulate over time and results in evolvolution of the viruses as they circulate in their natural animal reservoir populations. Thus, these variant viruses carried by animals are a risk to human health and may spill-over to people who share the same environment. If some viral variants arise and are able to adapt to use human cell receptors and if they are able to escape immune defences, they may become highly infectious and cause large disease outbreaks.
-Vaccines are only as good as the immune targets (the viral protein (antigen) presented by vaccines) of the pathogen that they are designed for. If the antigen changes, vaccines fail to protect. In most cases current vaccine candidates against RNA viruses are from past human outbreaks with little or no information of future risks from viral variants carried in animal reservoirs, especially those with the potential for animal to human (zoonotic) transmission. 
-We propose to establish an extended viral sequence database derived from animal reservoirs for two virus families which cause viral haemorrhagic diseases in geographically overlapping regions of West Africa. By gaining new molecular/genomic and antibody data from animal hosts, we will acquire an understanding of the infection dynamics and viral persistence in their natural reservoirs, while providing essential viral diversity data in reservoirs to discover new vaccine antigens and accelerate truly protective vaccine design.
-We will acquire Lassa/Arenavirus sequence diversity data from a comprehensive survey of the natural rodent hosts (Mastomys natalensis and other rodent reservoir species) in Nigeria where documented Lassa outbreaks occur in states with cases caused by diverse isoaltes of Lassa fever virus. A second reservoir viral sequence database is likely to arise from a complementary study funded by the UK GCRF award to Prof J Wood based from sampled bat colonies in Ghana which Ebolavirus antibody and antigen positive animals have been found.
-Equipped with this information on the sequence diversity of viruses in animal reservoirs which threaten to spill-over to humans, we will be able to design better vaccine antigens for more effective and broadly protective vaccines. We will achieve this using a new accelerated vaccine development platform using cutting edge technologies to achieve dramatic improvements in vaccine efficacy and the speed of vaccine development. 
-We will use the new EVAC (Emerging viral Vaccine Antigen Construct) platform vaccine technology we previously developed with Innovate-UK funding. The EVAC platform, which significantly accelerates vaccine development, merges (i) sequences of outbreak pathogens and their reservoirs in West Africa, (ii) broadly anti-viral neutralising monoclonal antibodies derived from viral haemorrhagic fever survivors, (iii) computational modelling methodologies, (iv) synthetic gene technology, and (v) in vivo immune selection and vaccine efficacy readouts. The end products are novel vaccine antigens to trigger the broadest spectrum of protective immune responses using Digitally Designed, Immune Optimised and Selected (DIOS) vaccine antigens against re-emerging RNA viruses Lassa Fever and Ebola viruses.</t>
-  </si>
-  <si>
-    <t>https://gtr.ukri.org/projects?ref=BB/R020116/1</t>
-  </si>
-  <si>
-    <t>BB/R019800/1</t>
-  </si>
-  <si>
-    <t>Vaccines and molecular tools for the control of the emerging bunyavirus, severe fever with thrombocytopenia syndrome phlebovirus (SFTSV)</t>
-  </si>
-  <si>
-    <t>Viruses in the newly formed order Bunyavirales are frequently arthropod-transmitted with many members capable of causing substantial human, animal and disease. The WHO has identified several bunyaviruses as key emerging pathogens, and this call entitled &amp;quot;One health approaches to accelerate vaccine development&amp;quot; also emphasizes interest in this group of viruses. This project focuses on severe fever with thrombocytopenia syndrome phlebovirus (SFTS phlebovirus; SFTSV) of the Phenuiviridae family of bunyaviruses which also includes significant emerging pathogens in both Asia and the USA (Heartland virus, HRTV). To date, over 2500 SFTSV cases have been reported in China, 172 cases in South Korea and 96 cases in Japan, with case fatality rates ranging from 8.2% to 32.6%. The annual incidence of reporting is increasing in all endemic countries, e.g. in China where 53 cases were reported in 2010, compared to 676 in 2013. To address the threat posed by novel, emerging bunyaviruses, scientists at the MRC-University of Glasgow Centre for Virus Research (CVR) have developed a &amp;quot;reverse genetics&amp;quot; system with which SFTSV can be manipulated, and which permit the rational design of rationally attenuated virus vaccine candidates. Such reverse genetics systems enable the rapid recovery of replication competent bunyaviruses from plasmids encoding cDNA copies of the viral genomic RNA. This technology facilitates the mapping of epitopes targeted by the humoral and cellular immune response as well as the identification and manipulation of virally-encoded virulence factors. The NSs proteins of many bunyaviruses are recognised as virulence factors due to their ability to counteract the mammalian innate immune responses. Hence, these reverse genetics-based strategies offer a realistic means to develop rational vaccine candidates for emerging bunyaviral diseases, as well as the development of viruses that help to further elucidate the immune responses mounted to infection and viral pathogenesis. We have now generated a recombinant NSs-deletant SFTSV (called SFTSVdelNSs) which is unable to antagonise type I interferon responses mounted in response to infection. This facilitates the studies into the role of innate immune responses in controlling SFTSV, as well as in vivo tissue tropism and pathogenesis in absence of the virulence factor NSs, leading to the evaluation of such potentially attenuated viruses as vaccine candidates. The strengths of reverse genetics-based approaches to producing recombinant bunyaviruses extends beyond the production of attenuated virus vaccine candidates. The system also allows the development and production of virus-like particles (VLPs). Both recombinant viruses and VLPs can be tested for their ability to induce immune responses in immunised animals as well as protective vaccine candidates. This proposal will bring together CVR and Beijing Institutes of Life Science (BIOLS) researchers to elucidate host immune responses to SFTSV infection and pathogenesis, the development of recombinant virus vaccine candidates and tools to further study SFTSV.
-Aim 1. To elucidate the contribution of SFTSV NSs to in vivo tissue tropism and pathogenesis. We will also assess a recombinant SFTSV (lacking NSs; SFTSVdelNSs) as vaccine candidate in comparison to VLPs.
-Aim 2. To produce novel neutralising antibodies against SFTSV for basic research and as potential therapeutic agents. We will investigate antibody responses using a novel SFTS viruses expressing reporter genes to study immune responses in both patient sera and infected animals. This will allow us to define the breadth of the neutralising antibody responses and to map antigenic determinants on the virion. Antigenic variation and escape from neutralisation of the SFTSV Gn structural protein (known target for antibody responses) will be investigated through mutational analysis. 
-The project will also include training in reverse genetics technology for the partner BIOLS.</t>
-  </si>
-  <si>
-    <t>University of Glasgow</t>
-  </si>
-  <si>
-    <t>University of Pittsburgh; Chinese Academy of Sciences</t>
-  </si>
-  <si>
-    <t>United States, China</t>
-  </si>
-  <si>
-    <t>https://gtr.ukri.org/projects?ref=BB/R019800/1</t>
-  </si>
-  <si>
-    <t>BB/R019991/1</t>
-  </si>
-  <si>
-    <t>Bunyavirus Immunity Consortium: Delineating the immune response against CCHFV and other Nairoviruses to aid effective vaccine design</t>
-  </si>
-  <si>
-    <t>Viral haemorrhagic fevers (VHF) are characterised by very high temperatures and bleeding, and are associated with high levels of morbidity and mortality. A number of viruses can cause VHF, including Crimean-Congo haemorrhagic fever virus (CCHFV), which is the most widespread, tick-borne viral disease affecting humans. The disease is endemic in many regions, such as Africa, Asia, Eastern and Southern Europe, and Central Asia. CCHFV-associated deaths are estimated to be as high as 30% during outbreak settings. 
-The study of VHFs that affect humans is limited by the need to work in high containment laboratories and by the relative absence of easily-accessible and appropriate models of disease. Nairobi sheep disease virus (NSDV) is an important veterinary-specific and naturally occurring VHF of sheep and goats. NSDV infection of small ruminants is associated with high mortality of up to 90% but is of low risk to humans. NSDV is very closely related to CCHFV, and investigation of NSDV will positively inform CCHFV work and vice versa, whilst simultaneously increasing our knowledge of VHFs and helping inform vaccine development. 
-The immune response that protects post-exposure to CCHFV and NSDV remains unknown. However, there are no reports of patients being re-infected with CCHFV and disease outbreaks of NSDV only occur when naive animals are moved to an enzootic area; suggesting that prior exposure can result in protective immunity. Delineating the immune response following CCHFV/ NSDV infection is the main objective of this project. 
-Detailed studies of the immune response in recovery post VHF will be achieved through the assessment of antibody functionality, antigenic profiling and B-cell cohort evaluation. The functionality, population cohorts and type of recall response for T-cell immune responses against CCHF and NSDV, in exposed humans and animals, will also be measured. This will help define the breadth and repertoire of immunity needed to develop protective immunity and in this manner identify the protein(s) of choice for vaccine inclusion. 
-We will therefore assess the immune responses post exposure to nairoviuses (e.g. CCHFV and/ or NSDV) foreseeing that this immune profiling will identify antigenic targets to become vaccine components in elimination campaigns which will directly and positively impact the economy, health and welfare of endemic countries. This is the principle and direct aim of this research proposal.</t>
-  </si>
-  <si>
-    <t>Oxford Expression Technologies; Centers for Disease Control and Prevention (CDC); Public Health England; The Pirbright Institute; University of Sussex; University of Glasgow</t>
-  </si>
-  <si>
-    <t>https://gtr.ukri.org/projects?ref=BB/R019991/1</t>
-  </si>
-  <si>
-    <t>BB/R019843/1</t>
-  </si>
-  <si>
-    <t>A One Health approach to pan-valent morbillivirus vaccines</t>
-  </si>
-  <si>
-    <t>Paramyxoviruses are a family of viruses that pose a significant threat to humans and animals alike. For example, Hendra virus outbreaks in Australia have targeted both racehorses and their trainers, while Nipah virus outbreaks in Malaysia spread through pig farms, resulting in 105 human fatalities and the culling of approximately 1.1 million pigs. While such cross-species transmission events may occur relatively infrequently, when they do occur, the consequences can be devastating for humans and animals alike. The Paramyxovirus family also includes the morbillivirus genus of viruses, possibly the most notable of which are measles virus in humans and rinderpest virus in cattle. Morbilliviruses of animals have a very high potential for cross-species transmission, or &amp;quot;zoonosis&amp;quot;. Although originally described as a pathogen of dogs, canine distemper virus (CDV) has jumped species into critically endangered lion, tiger, seal and giant panda populations. A closely related morbillivirus of sheep and goats, peste des petits ruminants virus (PPRV) has caused severe disease outbreaks in saiga antelope in Mongolia, buffalo in India and camels in Ethiopia and Sudan. If we are to combat the future spread of such zoonotic morbilliviruses, we need to develop a better understanding of the process of cross-species transmission and how this can be prevented by vaccination.
-Vaccination against one species of morbillivirus can provide immunity to infection with morbilliviruses from other species; a rinderpest vaccine can protect cattle from rinderpest, a goat from PPRV and a dog from CDV. Vaccination triggers the production of neutralising antibodies (nAbs) targeting the surface glycoproteins of the virus, hence, some of these antibodies must recognize determinants that are conserved across diverse morbilliviruses. In this project, we set out to identify the determinants on the viral surface glycoproteins that are recognised by neutralising antibodies. If these binding sites can be identified, we will be able to design better pan-morbilliviral vaccines, vaccines that will protect against cross-species infection with emerging morbilliviruses.
-To achieve this goal, we have designed in vitro systems with which we can recreate the cellular environment of the susceptible host species. Morbilliviruses attach to target cells by binding to either of two protein molecules expressed on the cell surface, CD150 or nectin-4. Variations in the amino acid sequences of these molecules are key determinants of which species the viruses target, hence CDV is able to bind to CD150 from many species and thus has a very broad species tropism. Neither CDV nor PPRV bind human CD150 well and hence infect human cells very inefficiently. However, with a small adaptation to the amino acid sequence of the viral glycoproteins, binding is enhanced greatly and the viruses display an enhanced ability to infect human cells. We have developed assays with which we can study the propensity for morbilliviruses to develop such mutations. Moreover, we can assess how efficient antibodies generated in the host by vaccination are at preventing infection with such viruses. In effect, we have developed systems with which we can determine the likelihood of zoonotic transmission occurring and how to prevent it by vaccination. 
-This project will guide the design of the next generation of pan-morbilliviral vaccines and will develop assays systems with which their likely efficacy in preventing zoonoses can be assessed in vitro. By defining the viral targets for neutralising antibodies and by assessing their function against potentially zoonotic viruses, this project offers a unique opportunity to protect both humans and animals alike against the emerging threat posed by novel morbilliviruses.</t>
-  </si>
-  <si>
-    <t>University of Oxford; French Agricultural Research Centre for International Development; Pennsylvania State University; Wildlife Conservation Society; The Pirbright Institute; University of Cambridge; FAO/IAEA Agriculture and Biotechnology Laboratories; Scotland's Rural College; Royal Veterinary College</t>
-  </si>
-  <si>
-    <t>United Kingdom, United States, Indonesia, Laos, Democratic Republic of the Congo, India, Austria</t>
-  </si>
-  <si>
-    <t>https://gtr.ukri.org/projects?ref=BB/R019843/1</t>
   </si>
   <si>
     <t>GB-GOV-10-UKVN-EFV-CCF</t>
@@ -4496,12 +4200,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:X1000"/>
+  <dimension ref="A1:X988"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4593,12 +4294,12 @@
       <c r="W1" s="9"/>
       <c r="X1" s="9"/>
     </row>
-    <row r="2" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>60</v>
@@ -4626,7 +4327,7 @@
         <v>44834</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M2" s="53">
         <v>726472</v>
@@ -4655,12 +4356,12 @@
       <c r="W2" s="13"/>
       <c r="X2" s="13"/>
     </row>
-    <row r="3" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>60</v>
@@ -4688,7 +4389,7 @@
         <v>44834</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M3" s="53">
         <v>749854</v>
@@ -4717,12 +4418,12 @@
       <c r="W3" s="13"/>
       <c r="X3" s="13"/>
     </row>
-    <row r="4" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>60</v>
@@ -4750,7 +4451,7 @@
         <v>44834</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M4" s="53">
         <v>742085</v>
@@ -4779,12 +4480,12 @@
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>60</v>
@@ -4812,7 +4513,7 @@
         <v>44834</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M5" s="53">
         <v>748508</v>
@@ -4841,12 +4542,12 @@
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>60</v>
@@ -4874,7 +4575,7 @@
         <v>44834</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M6" s="53">
         <v>697784</v>
@@ -4903,12 +4604,12 @@
       <c r="W6" s="13"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>60</v>
@@ -4936,7 +4637,7 @@
         <v>44834</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M7" s="53">
         <v>743206</v>
@@ -4965,12 +4666,12 @@
       <c r="W7" s="13"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>60</v>
@@ -4998,7 +4699,7 @@
         <v>44834</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M8" s="53">
         <v>642659</v>
@@ -5027,12 +4728,12 @@
       <c r="W8" s="13"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>60</v>
@@ -5060,7 +4761,7 @@
         <v>44834</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M9" s="53">
         <v>670407</v>
@@ -5089,12 +4790,12 @@
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>9</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>60</v>
@@ -5122,7 +4823,7 @@
         <v>44834</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M10" s="53">
         <v>689171</v>
@@ -5151,12 +4852,12 @@
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>60</v>
@@ -5184,7 +4885,7 @@
         <v>44834</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M11" s="53">
         <v>489339</v>
@@ -5213,12 +4914,12 @@
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>60</v>
@@ -5246,7 +4947,7 @@
         <v>44834</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M12" s="53">
         <v>642075</v>
@@ -5275,12 +4976,12 @@
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>60</v>
@@ -5308,7 +5009,7 @@
         <v>44925</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M13" s="53">
         <v>726000</v>
@@ -5337,12 +5038,12 @@
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
     </row>
-    <row r="14" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>60</v>
@@ -5370,7 +5071,7 @@
         <v>44834</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M14" s="53">
         <v>749599</v>
@@ -5399,12 +5100,12 @@
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
     </row>
-    <row r="15" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>60</v>
@@ -5432,7 +5133,7 @@
         <v>44834</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M15" s="53">
         <v>740692</v>
@@ -5461,12 +5162,12 @@
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
     </row>
-    <row r="16" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>60</v>
@@ -5513,12 +5214,12 @@
       <c r="W16" s="13"/>
       <c r="X16" s="13"/>
     </row>
-    <row r="17" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>60</v>
@@ -5565,12 +5266,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>60</v>
@@ -5617,12 +5318,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>60</v>
@@ -5669,12 +5370,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>19</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>60</v>
@@ -5721,12 +5422,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>20</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>60</v>
@@ -5773,12 +5474,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>21</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>60</v>
@@ -5831,12 +5532,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>22</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>60</v>
@@ -5889,12 +5590,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>23</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>60</v>
@@ -5947,12 +5648,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>24</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>60</v>
@@ -6005,12 +5706,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>25</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C26" s="29" t="s">
         <v>60</v>
@@ -6063,12 +5764,12 @@
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>26</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C27" s="29" t="s">
         <v>60</v>
@@ -6119,12 +5820,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>27</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C28" s="29" t="s">
         <v>60</v>
@@ -6177,12 +5878,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>28</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C29" s="29" t="s">
         <v>60</v>
@@ -6235,12 +5936,12 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>29</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C30" s="29" t="s">
         <v>60</v>
@@ -6293,12 +5994,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>30</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C31" s="29" t="s">
         <v>60</v>
@@ -6351,12 +6052,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>31</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C32" s="29" t="s">
         <v>60</v>
@@ -6411,823 +6112,815 @@
     </row>
     <row r="33" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C33" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="18" t="s">
-        <v>266</v>
+      <c r="D33" s="32" t="s">
+        <v>268</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>268</v>
+        <v>269</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>270</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="I33" s="18"/>
+        <v>271</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="I33" s="32"/>
       <c r="J33" s="31">
-        <v>43678</v>
+        <v>43236</v>
       </c>
       <c r="K33" s="31">
-        <v>45077</v>
+        <v>44408</v>
       </c>
       <c r="L33" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M33" s="53">
-        <v>904388</v>
-      </c>
-      <c r="N33" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="O33" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="P33" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q33" s="18" t="s">
+        <v>5120528</v>
+      </c>
+      <c r="N33" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="R33" s="18" t="s">
+      <c r="O33" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="S33" s="18"/>
-      <c r="T33" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
+      <c r="P33" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
     </row>
     <row r="34" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C34" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="F34" s="30" t="s">
+      <c r="D34" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="H34" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="H34" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="I34" s="18"/>
+      <c r="I34" s="32"/>
       <c r="J34" s="31">
-        <v>43678</v>
+        <v>43440</v>
       </c>
       <c r="K34" s="31">
-        <v>45077</v>
+        <v>44408</v>
       </c>
       <c r="L34" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M34" s="53">
-        <v>1027191</v>
-      </c>
-      <c r="N34" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="O34" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="P34" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q34" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="R34" s="18" t="s">
+        <v>4999705</v>
+      </c>
+      <c r="N34" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="O34" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="S34" s="18"/>
-      <c r="T34" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
+      <c r="P34" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
     </row>
     <row r="35" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="F35" s="30" t="s">
+      <c r="D35" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="H35" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="G35" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="I35" s="18"/>
+      <c r="I35" s="32"/>
       <c r="J35" s="31">
-        <v>43678</v>
+        <v>43191</v>
       </c>
       <c r="K35" s="31">
-        <v>45077</v>
+        <v>43555</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M35" s="53">
-        <v>1029091</v>
-      </c>
-      <c r="N35" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="O35" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="P35" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q35" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="R35" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="S35" s="18"/>
-      <c r="T35" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
+        <v>1000000</v>
+      </c>
+      <c r="N35" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="O35" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="P35" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
     </row>
     <row r="36" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C36" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>288</v>
+      <c r="D36" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>283</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="I36" s="18"/>
+        <v>281</v>
+      </c>
+      <c r="H36" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="I36" s="32"/>
       <c r="J36" s="31">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="K36" s="31">
-        <v>45077</v>
+        <v>44641</v>
       </c>
       <c r="L36" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M36" s="53">
-        <v>687418</v>
-      </c>
-      <c r="N36" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="O36" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="P36" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q36" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="R36" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="S36" s="18"/>
-      <c r="T36" s="33" t="s">
-        <v>293</v>
-      </c>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
+        <v>5000000</v>
+      </c>
+      <c r="N36" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="O36" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="P36" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
     </row>
     <row r="37" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>294</v>
+      <c r="D37" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>284</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="I37" s="18"/>
+        <v>679</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="I37" s="32"/>
       <c r="J37" s="31">
-        <v>43678</v>
+        <v>43922</v>
       </c>
       <c r="K37" s="31">
-        <v>45077</v>
+        <v>44286</v>
       </c>
       <c r="L37" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M37" s="53">
-        <v>1019404</v>
-      </c>
-      <c r="N37" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="O37" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="P37" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q37" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="R37" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="S37" s="18"/>
-      <c r="T37" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="13"/>
-    </row>
-    <row r="38" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1000000</v>
+      </c>
+      <c r="N37" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="O37" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="P37" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+    </row>
+    <row r="38" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C38" s="29" t="s">
         <v>60</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="F38" s="43" t="s">
-        <v>302</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="H38" s="32" t="s">
-        <v>304</v>
+        <v>286</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="G38" s="54" t="s">
+        <v>680</v>
+      </c>
+      <c r="H38" s="35" t="s">
+        <v>289</v>
       </c>
       <c r="I38" s="32"/>
       <c r="J38" s="31">
-        <v>43236</v>
+        <v>43525</v>
       </c>
       <c r="K38" s="31">
-        <v>44408</v>
+        <v>43889</v>
       </c>
       <c r="L38" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M38" s="53">
-        <v>5120528</v>
+        <v>83986</v>
       </c>
       <c r="N38" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="O38" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="P38" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="32"/>
+        <v>255</v>
+      </c>
+      <c r="O38" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="P38" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q38" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="R38" s="32" t="s">
+        <v>255</v>
+      </c>
       <c r="S38" s="32"/>
-      <c r="T38" s="33"/>
+      <c r="T38" s="33" t="s">
+        <v>157</v>
+      </c>
       <c r="U38" s="14"/>
       <c r="V38" s="14"/>
       <c r="W38" s="14"/>
       <c r="X38" s="14"/>
     </row>
-    <row r="39" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C39" s="29" t="s">
         <v>60</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="E39" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="G39" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="F39" s="43" t="s">
-        <v>307</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="H39" s="32" t="s">
-        <v>309</v>
+      <c r="H39" s="35" t="s">
+        <v>293</v>
       </c>
       <c r="I39" s="32"/>
       <c r="J39" s="31">
-        <v>43440</v>
+        <v>43525</v>
       </c>
       <c r="K39" s="31">
-        <v>44408</v>
+        <v>43860</v>
       </c>
       <c r="L39" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M39" s="53">
-        <v>4999705</v>
+        <v>48217</v>
       </c>
       <c r="N39" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="O39" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="P39" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="32"/>
+        <v>255</v>
+      </c>
+      <c r="O39" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="P39" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q39" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="R39" s="32" t="s">
+        <v>255</v>
+      </c>
       <c r="S39" s="32"/>
-      <c r="T39" s="33"/>
+      <c r="T39" s="33" t="s">
+        <v>157</v>
+      </c>
       <c r="U39" s="14"/>
       <c r="V39" s="14"/>
       <c r="W39" s="14"/>
       <c r="X39" s="14"/>
     </row>
-    <row r="40" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C40" s="29" t="s">
         <v>60</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="E40" s="37" t="s">
-        <v>311</v>
+        <v>286</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>287</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="H40" s="45" t="s">
-        <v>314</v>
-      </c>
-      <c r="I40" s="32"/>
+        <v>681</v>
+      </c>
+      <c r="H40" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="I40" s="18"/>
       <c r="J40" s="31">
-        <v>43191</v>
+        <v>43525</v>
       </c>
       <c r="K40" s="31">
-        <v>43555</v>
+        <v>43769</v>
       </c>
       <c r="L40" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M40" s="53">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="N40" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="O40" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="P40" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="33"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
-      <c r="X40" s="14"/>
-    </row>
-    <row r="41" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+      <c r="O40" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="P40" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q40" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="R40" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="S40" s="18"/>
+      <c r="T40" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C41" s="29" t="s">
         <v>60</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="E41" s="37" t="s">
-        <v>311</v>
+        <v>286</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>287</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="H41" s="45" t="s">
-        <v>314</v>
-      </c>
-      <c r="I41" s="32"/>
+        <v>301</v>
+      </c>
+      <c r="H41" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="I41" s="18"/>
       <c r="J41" s="31">
-        <v>43647</v>
+        <v>43525</v>
       </c>
       <c r="K41" s="31">
-        <v>44641</v>
+        <v>43769</v>
       </c>
       <c r="L41" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M41" s="53">
-        <v>5000000</v>
+        <v>50000</v>
       </c>
       <c r="N41" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="O41" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="P41" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="33"/>
-      <c r="U41" s="14"/>
-      <c r="V41" s="14"/>
-      <c r="W41" s="14"/>
-      <c r="X41" s="14"/>
-    </row>
-    <row r="42" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+      <c r="O41" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="P41" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q41" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="R41" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="S41" s="18"/>
+      <c r="T41" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C42" s="29" t="s">
         <v>60</v>
       </c>
       <c r="D42" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="H42" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="I42" s="18"/>
+      <c r="J42" s="31">
+        <v>43525</v>
+      </c>
+      <c r="K42" s="31">
+        <v>43769</v>
+      </c>
+      <c r="L42" s="17" t="s">
+        <v>682</v>
+      </c>
+      <c r="M42" s="53">
+        <v>49064</v>
+      </c>
+      <c r="N42" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="O42" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="P42" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q42" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="R42" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="E42" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="F42" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="H42" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="I42" s="32"/>
-      <c r="J42" s="31">
-        <v>43922</v>
-      </c>
-      <c r="K42" s="31">
-        <v>44286</v>
-      </c>
-      <c r="L42" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="M42" s="53">
-        <v>1000000</v>
-      </c>
-      <c r="N42" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="O42" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="P42" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="32"/>
-      <c r="T42" s="33"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
-      <c r="X42" s="14"/>
-    </row>
-    <row r="43" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S42" s="18"/>
+      <c r="T42" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C43" s="29" t="s">
         <v>60</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>320</v>
-      </c>
-      <c r="G43" s="54" t="s">
-        <v>753</v>
+        <v>311</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>312</v>
       </c>
       <c r="H43" s="35" t="s">
-        <v>321</v>
-      </c>
-      <c r="I43" s="32"/>
+        <v>313</v>
+      </c>
+      <c r="I43" s="18"/>
       <c r="J43" s="31">
         <v>43525</v>
       </c>
       <c r="K43" s="31">
-        <v>43889</v>
+        <v>43982</v>
       </c>
       <c r="L43" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M43" s="53">
-        <v>83986</v>
+        <v>49850</v>
       </c>
       <c r="N43" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="O43" s="32" t="s">
-        <v>322</v>
+        <v>314</v>
+      </c>
+      <c r="O43" s="18" t="s">
+        <v>315</v>
       </c>
       <c r="P43" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q43" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="R43" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="Q43" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="R43" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="S43" s="32"/>
+      <c r="S43" s="18"/>
       <c r="T43" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="U43" s="14"/>
-      <c r="V43" s="14"/>
-      <c r="W43" s="14"/>
-      <c r="X43" s="14"/>
-    </row>
-    <row r="44" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C44" s="29" t="s">
         <v>60</v>
       </c>
       <c r="D44" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="G44" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="E44" s="32" t="s">
+      <c r="H44" s="35" t="s">
         <v>319</v>
       </c>
-      <c r="F44" s="36" t="s">
-        <v>324</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="H44" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="I44" s="32"/>
+      <c r="I44" s="18"/>
       <c r="J44" s="31">
         <v>43525</v>
       </c>
       <c r="K44" s="31">
-        <v>43860</v>
+        <v>43889</v>
       </c>
       <c r="L44" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M44" s="53">
-        <v>48217</v>
+        <v>79997</v>
       </c>
       <c r="N44" s="37" t="s">
-        <v>255</v>
+        <v>320</v>
       </c>
       <c r="O44" s="18" t="s">
-        <v>263</v>
+        <v>321</v>
       </c>
       <c r="P44" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q44" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="R44" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="S44" s="32"/>
+        <v>322</v>
+      </c>
+      <c r="Q44" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="R44" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="S44" s="18"/>
       <c r="T44" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="14"/>
-    </row>
-    <row r="45" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C45" s="29" t="s">
         <v>60</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="F45" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="F45" s="46" t="s">
+        <v>325</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="H45" s="35" t="s">
         <v>327</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>754</v>
-      </c>
-      <c r="H45" s="35" t="s">
-        <v>328</v>
       </c>
       <c r="I45" s="18"/>
       <c r="J45" s="31">
         <v>43525</v>
       </c>
       <c r="K45" s="31">
-        <v>43769</v>
+        <v>44104</v>
       </c>
       <c r="L45" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M45" s="53">
-        <v>50000</v>
+        <v>64864</v>
       </c>
       <c r="N45" s="37" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="O45" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P45" s="18" t="s">
         <v>68</v>
       </c>
       <c r="Q45" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="R45" s="47" t="s">
         <v>330</v>
-      </c>
-      <c r="R45" s="32" t="s">
-        <v>331</v>
       </c>
       <c r="S45" s="18"/>
       <c r="T45" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
-      <c r="X45" s="13"/>
-    </row>
-    <row r="46" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C46" s="29" t="s">
         <v>60</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="F46" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="G46" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="H46" s="35" t="s">
         <v>333</v>
-      </c>
-      <c r="H46" s="35" t="s">
-        <v>334</v>
       </c>
       <c r="I46" s="18"/>
       <c r="J46" s="31">
-        <v>43525</v>
+        <v>43739</v>
       </c>
       <c r="K46" s="31">
-        <v>43769</v>
+        <v>43921</v>
       </c>
       <c r="L46" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M46" s="53">
-        <v>50000</v>
+        <v>49074</v>
       </c>
       <c r="N46" s="37" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="O46" s="18" t="s">
-        <v>272</v>
+        <v>334</v>
       </c>
       <c r="P46" s="18" t="s">
         <v>68</v>
@@ -7242,26 +6935,22 @@
       <c r="T46" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="U46" s="13"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="13"/>
-      <c r="X46" s="13"/>
-    </row>
-    <row r="47" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C47" s="29" t="s">
         <v>60</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="F47" s="36" t="s">
         <v>337</v>
@@ -7274,56 +6963,52 @@
       </c>
       <c r="I47" s="18"/>
       <c r="J47" s="31">
-        <v>43525</v>
+        <v>43739</v>
       </c>
       <c r="K47" s="31">
-        <v>43769</v>
+        <v>44165</v>
       </c>
       <c r="L47" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M47" s="53">
-        <v>49064</v>
+        <v>37317</v>
       </c>
       <c r="N47" s="37" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="O47" s="18" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P47" s="18" t="s">
         <v>68</v>
       </c>
       <c r="Q47" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="R47" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="R47" s="44" t="s">
         <v>342</v>
       </c>
       <c r="S47" s="18"/>
       <c r="T47" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="U47" s="13"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="13"/>
-      <c r="X47" s="13"/>
-    </row>
-    <row r="48" spans="1:24" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C48" s="29" t="s">
         <v>60</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="F48" s="36" t="s">
         <v>343</v>
@@ -7336,56 +7021,52 @@
       </c>
       <c r="I48" s="18"/>
       <c r="J48" s="31">
-        <v>43525</v>
+        <v>43739</v>
       </c>
       <c r="K48" s="31">
-        <v>43982</v>
+        <v>44196</v>
       </c>
       <c r="L48" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M48" s="53">
-        <v>49850</v>
+        <v>50000</v>
       </c>
       <c r="N48" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="O48" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="O48" s="18" t="s">
+      <c r="P48" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q48" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="P48" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q48" s="18" t="s">
+      <c r="R48" s="44" t="s">
         <v>348</v>
-      </c>
-      <c r="R48" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="S48" s="18"/>
       <c r="T48" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="U48" s="13"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-    </row>
-    <row r="49" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C49" s="29" t="s">
         <v>60</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="F49" s="36" t="s">
         <v>349</v>
@@ -7398,16 +7079,16 @@
       </c>
       <c r="I49" s="18"/>
       <c r="J49" s="31">
-        <v>43525</v>
+        <v>43739</v>
       </c>
       <c r="K49" s="31">
-        <v>43889</v>
+        <v>44104</v>
       </c>
       <c r="L49" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M49" s="53">
-        <v>79997</v>
+        <v>46380</v>
       </c>
       <c r="N49" s="37" t="s">
         <v>352</v>
@@ -7416,640 +7097,614 @@
         <v>353</v>
       </c>
       <c r="P49" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q49" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="Q49" s="39" t="s">
-        <v>355</v>
-      </c>
-      <c r="R49" s="44" t="s">
-        <v>356</v>
-      </c>
+      <c r="R49" s="48"/>
       <c r="S49" s="18"/>
       <c r="T49" s="33" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C50" s="29" t="s">
         <v>60</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="F50" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="F50" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="H50" s="35" t="s">
         <v>357</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="H50" s="35" t="s">
-        <v>359</v>
       </c>
       <c r="I50" s="18"/>
       <c r="J50" s="31">
-        <v>43525</v>
+        <v>43739</v>
       </c>
       <c r="K50" s="31">
-        <v>44104</v>
+        <v>44074</v>
       </c>
       <c r="L50" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M50" s="53">
-        <v>64864</v>
+        <v>62876</v>
       </c>
       <c r="N50" s="37" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="O50" s="18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="P50" s="18" t="s">
-        <v>68</v>
+        <v>299</v>
       </c>
       <c r="Q50" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="R50" s="47" t="s">
-        <v>362</v>
+        <v>347</v>
+      </c>
+      <c r="R50" s="44" t="s">
+        <v>359</v>
       </c>
       <c r="S50" s="18"/>
       <c r="T50" s="33" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C51" s="29" t="s">
         <v>60</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H51" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I51" s="18"/>
       <c r="J51" s="31">
         <v>43739</v>
       </c>
       <c r="K51" s="31">
-        <v>43921</v>
+        <v>44104</v>
       </c>
       <c r="L51" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M51" s="53">
-        <v>49074</v>
+        <v>35242</v>
       </c>
       <c r="N51" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="O51" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="O51" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="P51" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q51" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="P51" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q51" s="39" t="s">
+      <c r="R51" s="44" t="s">
         <v>367</v>
-      </c>
-      <c r="R51" s="44" t="s">
-        <v>368</v>
       </c>
       <c r="S51" s="18"/>
       <c r="T51" s="33" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C52" s="29" t="s">
         <v>60</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="F52" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="G52" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="H52" s="35" t="s">
         <v>370</v>
-      </c>
-      <c r="H52" s="35" t="s">
-        <v>371</v>
       </c>
       <c r="I52" s="18"/>
       <c r="J52" s="31">
         <v>43739</v>
       </c>
       <c r="K52" s="31">
-        <v>44165</v>
+        <v>43921</v>
       </c>
       <c r="L52" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M52" s="53">
-        <v>37317</v>
+        <v>48686</v>
       </c>
       <c r="N52" s="37" t="s">
-        <v>372</v>
+        <v>273</v>
       </c>
       <c r="O52" s="18" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="P52" s="18" t="s">
         <v>68</v>
       </c>
       <c r="Q52" s="18" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="R52" s="44" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="S52" s="18"/>
       <c r="T52" s="33" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C53" s="29" t="s">
         <v>60</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="E53" s="32" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="F53" s="36" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H53" s="35" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I53" s="18"/>
       <c r="J53" s="31">
         <v>43739</v>
       </c>
       <c r="K53" s="31">
-        <v>44196</v>
+        <v>43921</v>
       </c>
       <c r="L53" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M53" s="53">
-        <v>50000</v>
+        <v>46605</v>
       </c>
       <c r="N53" s="37" t="s">
-        <v>226</v>
+        <v>374</v>
       </c>
       <c r="O53" s="18" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="P53" s="18" t="s">
-        <v>226</v>
+        <v>68</v>
       </c>
       <c r="Q53" s="18" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="R53" s="44" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="S53" s="18"/>
       <c r="T53" s="33" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C54" s="29" t="s">
         <v>60</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="E54" s="32" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="F54" s="36" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H54" s="35" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I54" s="18"/>
       <c r="J54" s="31">
         <v>43739</v>
       </c>
       <c r="K54" s="31">
-        <v>44104</v>
+        <v>43982</v>
       </c>
       <c r="L54" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M54" s="53">
-        <v>46380</v>
+        <v>61262</v>
       </c>
       <c r="N54" s="37" t="s">
-        <v>384</v>
+        <v>273</v>
       </c>
       <c r="O54" s="18" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="P54" s="18" t="s">
         <v>68</v>
       </c>
       <c r="Q54" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="R54" s="48"/>
+        <v>347</v>
+      </c>
+      <c r="R54" s="44" t="s">
+        <v>381</v>
+      </c>
       <c r="S54" s="18"/>
       <c r="T54" s="33" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="E55" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="F55" s="36" t="s">
-        <v>387</v>
+        <v>382</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F55" s="30" t="s">
+        <v>384</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="H55" s="35" t="s">
-        <v>389</v>
+        <v>385</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>386</v>
       </c>
       <c r="I55" s="18"/>
       <c r="J55" s="31">
-        <v>43739</v>
+        <v>42644</v>
       </c>
       <c r="K55" s="31">
-        <v>44074</v>
+        <v>43008</v>
       </c>
       <c r="L55" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M55" s="53">
-        <v>62876</v>
-      </c>
-      <c r="N55" s="37" t="s">
-        <v>331</v>
+        <v>498870</v>
+      </c>
+      <c r="N55" s="18" t="s">
+        <v>250</v>
       </c>
       <c r="O55" s="18" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P55" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q55" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="R55" s="44" t="s">
-        <v>391</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
       <c r="S55" s="18"/>
       <c r="T55" s="33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="18">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="E56" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="F56" s="36" t="s">
-        <v>392</v>
+        <v>382</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F56" s="30" t="s">
+        <v>389</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="H56" s="35" t="s">
-        <v>394</v>
+        <v>390</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>391</v>
       </c>
       <c r="I56" s="18"/>
       <c r="J56" s="31">
-        <v>43739</v>
+        <v>42614</v>
       </c>
       <c r="K56" s="31">
-        <v>44104</v>
+        <v>43008</v>
       </c>
       <c r="L56" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M56" s="53">
-        <v>35242</v>
-      </c>
-      <c r="N56" s="37" t="s">
-        <v>395</v>
-      </c>
-      <c r="O56" s="32" t="s">
-        <v>396</v>
-      </c>
-      <c r="P56" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q56" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="R56" s="44" t="s">
-        <v>399</v>
-      </c>
+        <v>654717</v>
+      </c>
+      <c r="N56" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="O56" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
       <c r="S56" s="18"/>
       <c r="T56" s="33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="18">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="E57" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="F57" s="36" t="s">
-        <v>400</v>
+        <v>382</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F57" s="30" t="s">
+        <v>394</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="H57" s="35" t="s">
-        <v>402</v>
+        <v>395</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>396</v>
       </c>
       <c r="I57" s="18"/>
       <c r="J57" s="31">
-        <v>43739</v>
+        <v>42614</v>
       </c>
       <c r="K57" s="31">
-        <v>43921</v>
+        <v>42978</v>
       </c>
       <c r="L57" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M57" s="53">
-        <v>48686</v>
-      </c>
-      <c r="N57" s="37" t="s">
-        <v>305</v>
+        <v>522800</v>
+      </c>
+      <c r="N57" s="18" t="s">
+        <v>250</v>
       </c>
       <c r="O57" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="P57" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q57" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="R57" s="44" t="s">
-        <v>380</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="18"/>
       <c r="S57" s="18"/>
       <c r="T57" s="33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="18">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="E58" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="F58" s="36" t="s">
-        <v>403</v>
+        <v>382</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58" s="30" t="s">
+        <v>399</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="H58" s="35" t="s">
-        <v>405</v>
+        <v>400</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>401</v>
       </c>
       <c r="I58" s="18"/>
       <c r="J58" s="31">
-        <v>43739</v>
+        <v>42614</v>
       </c>
       <c r="K58" s="31">
-        <v>43921</v>
+        <v>42978</v>
       </c>
       <c r="L58" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M58" s="53">
-        <v>46605</v>
-      </c>
-      <c r="N58" s="37" t="s">
-        <v>406</v>
+        <v>214270</v>
+      </c>
+      <c r="N58" s="18" t="s">
+        <v>250</v>
       </c>
       <c r="O58" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="P58" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q58" s="18" t="s">
-        <v>408</v>
-      </c>
-      <c r="R58" s="44" t="s">
-        <v>380</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
       <c r="S58" s="18"/>
       <c r="T58" s="33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="18">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D59" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="E59" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="F59" s="36" t="s">
-        <v>409</v>
+        <v>382</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" s="30" t="s">
+        <v>404</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="H59" s="35" t="s">
-        <v>411</v>
+        <v>405</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>406</v>
       </c>
       <c r="I59" s="18"/>
       <c r="J59" s="31">
-        <v>43739</v>
+        <v>42644</v>
       </c>
       <c r="K59" s="31">
-        <v>43982</v>
+        <v>43008</v>
       </c>
       <c r="L59" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M59" s="53">
-        <v>61262</v>
-      </c>
-      <c r="N59" s="37" t="s">
-        <v>305</v>
+        <v>156181</v>
+      </c>
+      <c r="N59" s="18" t="s">
+        <v>250</v>
       </c>
       <c r="O59" s="18" t="s">
-        <v>412</v>
-      </c>
-      <c r="P59" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="P59" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Q59" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="R59" s="44" t="s">
-        <v>413</v>
-      </c>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="18"/>
       <c r="S59" s="18"/>
       <c r="T59" s="33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="18">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="E60" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F60" s="30" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="I60" s="18"/>
       <c r="J60" s="31">
-        <v>42644</v>
+        <v>42614</v>
       </c>
       <c r="K60" s="31">
-        <v>43008</v>
+        <v>42978</v>
       </c>
       <c r="L60" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M60" s="53">
-        <v>498870</v>
+        <v>486701</v>
       </c>
       <c r="N60" s="18" t="s">
         <v>250</v>
       </c>
       <c r="O60" s="18" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="P60" s="18" t="s">
         <v>68</v>
@@ -8058,137 +7713,139 @@
       <c r="R60" s="18"/>
       <c r="S60" s="18"/>
       <c r="T60" s="33" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="18">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="E61" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F61" s="30" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="I61" s="18"/>
       <c r="J61" s="31">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="K61" s="31">
         <v>43008</v>
       </c>
       <c r="L61" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M61" s="53">
-        <v>654717</v>
+        <v>394407</v>
       </c>
       <c r="N61" s="18" t="s">
         <v>250</v>
       </c>
       <c r="O61" s="18" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="P61" s="18"/>
       <c r="Q61" s="18"/>
       <c r="R61" s="18"/>
       <c r="S61" s="18"/>
       <c r="T61" s="33" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="18">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="E62" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F62" s="30" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="I62" s="18"/>
       <c r="J62" s="31">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="K62" s="31">
-        <v>42978</v>
+        <v>43008</v>
       </c>
       <c r="L62" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M62" s="53">
-        <v>522800</v>
+        <v>593928</v>
       </c>
       <c r="N62" s="18" t="s">
         <v>250</v>
       </c>
       <c r="O62" s="18" t="s">
-        <v>429</v>
-      </c>
-      <c r="P62" s="18"/>
+        <v>422</v>
+      </c>
+      <c r="P62" s="49" t="s">
+        <v>68</v>
+      </c>
       <c r="Q62" s="18"/>
       <c r="R62" s="18"/>
       <c r="S62" s="18"/>
       <c r="T62" s="33" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="18">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="E63" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F63" s="30" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="I63" s="18"/>
       <c r="J63" s="31">
@@ -8198,579 +7855,581 @@
         <v>42978</v>
       </c>
       <c r="L63" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M63" s="53">
-        <v>214270</v>
+        <v>500000</v>
       </c>
       <c r="N63" s="18" t="s">
         <v>250</v>
       </c>
       <c r="O63" s="18" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="P63" s="18"/>
       <c r="Q63" s="18"/>
       <c r="R63" s="18"/>
       <c r="S63" s="18"/>
       <c r="T63" s="33" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="18">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="E64" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F64" s="30" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="I64" s="18"/>
       <c r="J64" s="31">
-        <v>42644</v>
+        <v>42614</v>
       </c>
       <c r="K64" s="31">
-        <v>43008</v>
+        <v>42978</v>
       </c>
       <c r="L64" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M64" s="53">
-        <v>156181</v>
-      </c>
-      <c r="N64" s="18" t="s">
+        <v>428646</v>
+      </c>
+      <c r="N64" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="O64" s="18" t="s">
-        <v>439</v>
-      </c>
-      <c r="P64" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q64" s="18"/>
-      <c r="R64" s="18"/>
+      <c r="O64" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
       <c r="S64" s="18"/>
       <c r="T64" s="33" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="18">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="E65" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F65" s="30" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="I65" s="18"/>
       <c r="J65" s="31">
         <v>42614</v>
       </c>
       <c r="K65" s="31">
-        <v>42978</v>
+        <v>43039</v>
       </c>
       <c r="L65" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M65" s="53">
-        <v>486701</v>
-      </c>
-      <c r="N65" s="18" t="s">
+        <v>498379</v>
+      </c>
+      <c r="N65" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="O65" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="P65" s="18" t="s">
+      <c r="O65" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="P65" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Q65" s="18"/>
-      <c r="R65" s="18"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
       <c r="S65" s="18"/>
       <c r="T65" s="33" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="18">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="E66" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F66" s="30" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="I66" s="18"/>
       <c r="J66" s="31">
-        <v>42644</v>
+        <v>42614</v>
       </c>
       <c r="K66" s="31">
-        <v>43008</v>
+        <v>42978</v>
       </c>
       <c r="L66" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M66" s="53">
-        <v>394407</v>
-      </c>
-      <c r="N66" s="18" t="s">
+        <v>217428</v>
+      </c>
+      <c r="N66" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="O66" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="P66" s="18"/>
-      <c r="Q66" s="18"/>
-      <c r="R66" s="18"/>
+      <c r="O66" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20"/>
       <c r="S66" s="18"/>
       <c r="T66" s="33" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="18">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="E67" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F67" s="30" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="I67" s="18"/>
       <c r="J67" s="31">
-        <v>42644</v>
+        <v>42614</v>
       </c>
       <c r="K67" s="31">
-        <v>43008</v>
+        <v>42978</v>
       </c>
       <c r="L67" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M67" s="53">
-        <v>593928</v>
-      </c>
-      <c r="N67" s="18" t="s">
+        <v>495000</v>
+      </c>
+      <c r="N67" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="O67" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="P67" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q67" s="18"/>
-      <c r="R67" s="18"/>
+      <c r="O67" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
       <c r="S67" s="18"/>
       <c r="T67" s="33" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="18">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="E68" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F68" s="30" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="I68" s="18"/>
       <c r="J68" s="31">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="K68" s="31">
-        <v>42978</v>
+        <v>43008</v>
       </c>
       <c r="L68" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M68" s="53">
-        <v>500000</v>
-      </c>
-      <c r="N68" s="18" t="s">
+        <v>359777</v>
+      </c>
+      <c r="N68" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="O68" s="18" t="s">
-        <v>459</v>
-      </c>
-      <c r="P68" s="18"/>
-      <c r="Q68" s="18"/>
-      <c r="R68" s="18"/>
+      <c r="O68" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="P68" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
       <c r="S68" s="18"/>
       <c r="T68" s="33" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="18">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="E69" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F69" s="30" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="I69" s="18"/>
       <c r="J69" s="31">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="K69" s="31">
-        <v>42978</v>
+        <v>43008</v>
       </c>
       <c r="L69" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M69" s="53">
-        <v>428646</v>
+        <v>394427</v>
       </c>
       <c r="N69" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O69" s="20" t="s">
-        <v>464</v>
-      </c>
-      <c r="P69" s="20"/>
+        <v>456</v>
+      </c>
+      <c r="P69" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="Q69" s="20"/>
-      <c r="R69" s="20"/>
+      <c r="R69" s="20" t="s">
+        <v>250</v>
+      </c>
       <c r="S69" s="18"/>
-      <c r="T69" s="33" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T69" s="50" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="18">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="E70" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F70" s="30" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="I70" s="18"/>
       <c r="J70" s="31">
         <v>42614</v>
       </c>
       <c r="K70" s="31">
-        <v>43039</v>
+        <v>43159</v>
       </c>
       <c r="L70" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M70" s="53">
-        <v>498379</v>
+        <v>999180</v>
       </c>
       <c r="N70" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O70" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="P70" s="20" t="s">
-        <v>68</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="P70" s="20"/>
       <c r="Q70" s="20"/>
       <c r="R70" s="20"/>
       <c r="S70" s="18"/>
       <c r="T70" s="33" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="18">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="E71" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F71" s="30" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="I71" s="18"/>
       <c r="J71" s="31">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="K71" s="31">
-        <v>42978</v>
+        <v>43830</v>
       </c>
       <c r="L71" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M71" s="53">
-        <v>217428</v>
+        <v>1035557</v>
       </c>
       <c r="N71" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O71" s="20" t="s">
-        <v>474</v>
+        <v>417</v>
       </c>
       <c r="P71" s="20"/>
       <c r="Q71" s="20"/>
       <c r="R71" s="20"/>
       <c r="S71" s="18"/>
       <c r="T71" s="33" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="18">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="E72" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F72" s="30" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="I72" s="18"/>
       <c r="J72" s="31">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="K72" s="31">
-        <v>42978</v>
+        <v>43830</v>
       </c>
       <c r="L72" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M72" s="53">
-        <v>495000</v>
+        <v>976757</v>
       </c>
       <c r="N72" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O72" s="20" t="s">
-        <v>479</v>
-      </c>
-      <c r="P72" s="20"/>
+        <v>353</v>
+      </c>
+      <c r="P72" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="Q72" s="20"/>
       <c r="R72" s="20"/>
       <c r="S72" s="18"/>
       <c r="T72" s="33" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="18">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="E73" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F73" s="30" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="I73" s="18"/>
       <c r="J73" s="31">
         <v>42644</v>
       </c>
       <c r="K73" s="31">
-        <v>43008</v>
+        <v>44650</v>
       </c>
       <c r="L73" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M73" s="53">
-        <v>359777</v>
+        <v>1106708</v>
       </c>
       <c r="N73" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O73" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="P73" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="P73" s="49" t="s">
         <v>68</v>
       </c>
       <c r="Q73" s="20"/>
       <c r="R73" s="20"/>
       <c r="S73" s="18"/>
       <c r="T73" s="33" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="18">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="E74" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F74" s="30" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="I74" s="18"/>
       <c r="J74" s="31">
@@ -8780,736 +8439,736 @@
         <v>43008</v>
       </c>
       <c r="L74" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M74" s="53">
-        <v>394427</v>
+        <v>488611</v>
       </c>
       <c r="N74" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O74" s="20" t="s">
-        <v>488</v>
+        <v>353</v>
       </c>
       <c r="P74" s="20" t="s">
         <v>68</v>
       </c>
       <c r="Q74" s="20"/>
-      <c r="R74" s="20" t="s">
-        <v>250</v>
-      </c>
+      <c r="R74" s="20"/>
       <c r="S74" s="18"/>
-      <c r="T74" s="50" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T74" s="33" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="18">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="E75" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F75" s="30" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="H75" s="18" t="s">
-        <v>492</v>
+        <v>400</v>
+      </c>
+      <c r="H75" s="20" t="s">
+        <v>480</v>
       </c>
       <c r="I75" s="18"/>
       <c r="J75" s="31">
-        <v>42614</v>
+        <v>43132</v>
       </c>
       <c r="K75" s="31">
-        <v>43159</v>
+        <v>44377</v>
       </c>
       <c r="L75" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M75" s="53">
-        <v>999180</v>
+        <v>2443209</v>
       </c>
       <c r="N75" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O75" s="20" t="s">
-        <v>493</v>
+        <v>402</v>
       </c>
       <c r="P75" s="20"/>
       <c r="Q75" s="20"/>
       <c r="R75" s="20"/>
       <c r="S75" s="18"/>
       <c r="T75" s="33" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="18">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="E76" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F76" s="30" t="s">
-        <v>495</v>
+      <c r="F76" s="51" t="s">
+        <v>482</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="I76" s="18"/>
       <c r="J76" s="31">
-        <v>42644</v>
+        <v>43132</v>
       </c>
       <c r="K76" s="31">
-        <v>43830</v>
+        <v>44408</v>
       </c>
       <c r="L76" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M76" s="53">
-        <v>1035557</v>
+        <v>217428</v>
       </c>
       <c r="N76" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O76" s="20" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="P76" s="20"/>
       <c r="Q76" s="20"/>
       <c r="R76" s="20"/>
       <c r="S76" s="18"/>
       <c r="T76" s="33" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="18">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="D77" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="E77" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="E77" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F77" s="30" t="s">
-        <v>499</v>
+      <c r="F77" s="51" t="s">
+        <v>486</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="H77" s="18" t="s">
-        <v>501</v>
+        <v>487</v>
+      </c>
+      <c r="H77" s="20" t="s">
+        <v>488</v>
       </c>
       <c r="I77" s="18"/>
       <c r="J77" s="31">
-        <v>42644</v>
+        <v>43132</v>
       </c>
       <c r="K77" s="31">
-        <v>43830</v>
+        <v>44286</v>
       </c>
       <c r="L77" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M77" s="53">
-        <v>976757</v>
+        <v>2000000</v>
       </c>
       <c r="N77" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O77" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="P77" s="20" t="s">
-        <v>68</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="P77" s="20"/>
       <c r="Q77" s="20"/>
       <c r="R77" s="20"/>
       <c r="S77" s="18"/>
       <c r="T77" s="33" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="18">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="D78" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="E78" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="E78" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F78" s="30" t="s">
-        <v>503</v>
+      <c r="F78" s="51" t="s">
+        <v>490</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="H78" s="18" t="s">
-        <v>505</v>
+        <v>491</v>
+      </c>
+      <c r="H78" s="20" t="s">
+        <v>492</v>
       </c>
       <c r="I78" s="18"/>
       <c r="J78" s="31">
-        <v>42644</v>
+        <v>43132</v>
       </c>
       <c r="K78" s="31">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="L78" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M78" s="53">
-        <v>1106708</v>
+        <v>1994035</v>
       </c>
       <c r="N78" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O78" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="P78" s="49" t="s">
-        <v>68</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="P78" s="20"/>
       <c r="Q78" s="20"/>
       <c r="R78" s="20"/>
       <c r="S78" s="18"/>
       <c r="T78" s="33" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="18">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="D79" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="E79" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F79" s="30" t="s">
-        <v>507</v>
+        <v>382</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="F79" s="51" t="s">
+        <v>496</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="H79" s="18" t="s">
-        <v>509</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="H79" s="20"/>
       <c r="I79" s="18"/>
-      <c r="J79" s="31">
-        <v>42644</v>
-      </c>
+      <c r="J79" s="31"/>
       <c r="K79" s="31">
-        <v>43008</v>
+        <v>44286</v>
       </c>
       <c r="L79" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M79" s="53">
-        <v>488611</v>
+        <v>2000332.16</v>
       </c>
       <c r="N79" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O79" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="P79" s="20" t="s">
-        <v>68</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="P79" s="20"/>
       <c r="Q79" s="20"/>
       <c r="R79" s="20"/>
       <c r="S79" s="18"/>
       <c r="T79" s="33" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="18">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="D80" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="E80" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F80" s="30" t="s">
-        <v>511</v>
+        <v>382</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="F80" s="51" t="s">
+        <v>500</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="H80" s="20" t="s">
-        <v>512</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="H80" s="20"/>
       <c r="I80" s="18"/>
-      <c r="J80" s="31">
-        <v>43132</v>
-      </c>
+      <c r="J80" s="31"/>
       <c r="K80" s="31">
-        <v>44377</v>
+        <v>44561</v>
       </c>
       <c r="L80" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M80" s="53">
-        <v>2443209</v>
+        <v>1870492</v>
       </c>
       <c r="N80" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O80" s="20" t="s">
-        <v>434</v>
+        <v>502</v>
       </c>
       <c r="P80" s="20"/>
       <c r="Q80" s="20"/>
       <c r="R80" s="20"/>
       <c r="S80" s="18"/>
       <c r="T80" s="33" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="18">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="E81" s="18" t="s">
-        <v>62</v>
+        <v>382</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>495</v>
       </c>
       <c r="F81" s="51" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="H81" s="18" t="s">
-        <v>516</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="H81" s="20"/>
       <c r="I81" s="18"/>
-      <c r="J81" s="31">
-        <v>43132</v>
-      </c>
+      <c r="J81" s="31"/>
       <c r="K81" s="31">
-        <v>44408</v>
+        <v>44651</v>
       </c>
       <c r="L81" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M81" s="53">
-        <v>217428</v>
+        <v>2394460</v>
       </c>
       <c r="N81" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O81" s="20" t="s">
-        <v>474</v>
+        <v>505</v>
       </c>
       <c r="P81" s="20"/>
       <c r="Q81" s="20"/>
       <c r="R81" s="20"/>
       <c r="S81" s="18"/>
       <c r="T81" s="33" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="18">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>415</v>
+        <v>494</v>
       </c>
       <c r="E82" s="20" t="s">
-        <v>62</v>
+        <v>495</v>
       </c>
       <c r="F82" s="51" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="H82" s="20" t="s">
-        <v>520</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="H82" s="20"/>
       <c r="I82" s="18"/>
-      <c r="J82" s="31">
-        <v>43132</v>
-      </c>
+      <c r="J82" s="31"/>
       <c r="K82" s="31">
-        <v>44286</v>
+        <v>44255</v>
       </c>
       <c r="L82" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M82" s="53">
-        <v>2000000</v>
+        <v>2468495</v>
       </c>
       <c r="N82" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O82" s="20" t="s">
-        <v>459</v>
+        <v>508</v>
       </c>
       <c r="P82" s="20"/>
       <c r="Q82" s="20"/>
       <c r="R82" s="20"/>
       <c r="S82" s="18"/>
       <c r="T82" s="33" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="18">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>415</v>
+        <v>494</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>62</v>
+        <v>495</v>
       </c>
       <c r="F83" s="51" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="H83" s="20" t="s">
-        <v>524</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="H83" s="20"/>
       <c r="I83" s="18"/>
-      <c r="J83" s="31">
-        <v>43132</v>
-      </c>
+      <c r="J83" s="31"/>
       <c r="K83" s="31">
-        <v>44651</v>
+        <v>44255</v>
       </c>
       <c r="L83" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M83" s="53">
-        <v>1994035</v>
+        <v>3309330</v>
       </c>
       <c r="N83" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O83" s="20" t="s">
-        <v>429</v>
+        <v>511</v>
       </c>
       <c r="P83" s="20"/>
       <c r="Q83" s="20"/>
       <c r="R83" s="20"/>
       <c r="S83" s="18"/>
       <c r="T83" s="33" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="18">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>526</v>
+        <v>494</v>
       </c>
       <c r="E84" s="20" t="s">
-        <v>527</v>
+        <v>495</v>
       </c>
       <c r="F84" s="51" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="H84" s="20"/>
       <c r="I84" s="18"/>
       <c r="J84" s="31"/>
-      <c r="K84" s="31">
-        <v>44286</v>
-      </c>
+      <c r="K84" s="31"/>
       <c r="L84" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M84" s="53">
-        <v>2000332.16</v>
+        <v>1591073</v>
       </c>
       <c r="N84" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O84" s="20" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="P84" s="20"/>
       <c r="Q84" s="20"/>
       <c r="R84" s="20"/>
       <c r="S84" s="18"/>
       <c r="T84" s="33" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="18">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>527</v>
+        <v>62</v>
       </c>
       <c r="F85" s="51" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="H85" s="20"/>
+        <v>517</v>
+      </c>
+      <c r="H85" s="20" t="s">
+        <v>518</v>
+      </c>
       <c r="I85" s="18"/>
-      <c r="J85" s="31"/>
+      <c r="J85" s="31">
+        <v>42826</v>
+      </c>
       <c r="K85" s="31">
-        <v>44561</v>
+        <v>43190</v>
       </c>
       <c r="L85" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M85" s="53">
-        <v>1870492</v>
+        <v>492527</v>
       </c>
       <c r="N85" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O85" s="20" t="s">
-        <v>534</v>
-      </c>
-      <c r="P85" s="20"/>
-      <c r="Q85" s="20"/>
-      <c r="R85" s="20"/>
+        <v>341</v>
+      </c>
+      <c r="P85" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q85" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="R85" s="20" t="s">
+        <v>250</v>
+      </c>
       <c r="S85" s="18"/>
       <c r="T85" s="33" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="18">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="E86" s="20" t="s">
-        <v>527</v>
+        <v>62</v>
       </c>
       <c r="F86" s="51" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="H86" s="20"/>
+        <v>521</v>
+      </c>
+      <c r="H86" s="20" t="s">
+        <v>522</v>
+      </c>
       <c r="I86" s="18"/>
-      <c r="J86" s="31"/>
+      <c r="J86" s="31">
+        <v>42856</v>
+      </c>
       <c r="K86" s="31">
-        <v>44651</v>
+        <v>43220</v>
       </c>
       <c r="L86" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M86" s="53">
-        <v>2394460</v>
+        <v>452324</v>
       </c>
       <c r="N86" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O86" s="20" t="s">
-        <v>537</v>
-      </c>
-      <c r="P86" s="20"/>
-      <c r="Q86" s="20"/>
-      <c r="R86" s="20"/>
+        <v>422</v>
+      </c>
+      <c r="P86" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q86" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="R86" s="20" t="s">
+        <v>250</v>
+      </c>
       <c r="S86" s="18"/>
       <c r="T86" s="33" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="18">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D87" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F87" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="H87" s="20" t="s">
         <v>526</v>
       </c>
-      <c r="E87" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="F87" s="51" t="s">
-        <v>538</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="H87" s="20"/>
       <c r="I87" s="18"/>
-      <c r="J87" s="31"/>
+      <c r="J87" s="31">
+        <v>42826</v>
+      </c>
       <c r="K87" s="31">
-        <v>44255</v>
+        <v>43190</v>
       </c>
       <c r="L87" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M87" s="53">
-        <v>2468495</v>
+        <v>500000</v>
       </c>
       <c r="N87" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O87" s="20" t="s">
-        <v>540</v>
+        <v>427</v>
       </c>
       <c r="P87" s="20"/>
       <c r="Q87" s="20"/>
       <c r="R87" s="20"/>
       <c r="S87" s="18"/>
       <c r="T87" s="33" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="18">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="E88" s="20" t="s">
-        <v>527</v>
+        <v>62</v>
       </c>
       <c r="F88" s="51" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="H88" s="20"/>
+        <v>529</v>
+      </c>
+      <c r="H88" s="20" t="s">
+        <v>530</v>
+      </c>
       <c r="I88" s="18"/>
-      <c r="J88" s="31"/>
+      <c r="J88" s="31">
+        <v>42826</v>
+      </c>
       <c r="K88" s="31">
-        <v>44255</v>
+        <v>43251</v>
       </c>
       <c r="L88" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M88" s="53">
-        <v>3309330</v>
+        <v>483455</v>
       </c>
       <c r="N88" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O88" s="20" t="s">
-        <v>543</v>
-      </c>
-      <c r="P88" s="20"/>
+        <v>387</v>
+      </c>
+      <c r="P88" s="49" t="s">
+        <v>68</v>
+      </c>
       <c r="Q88" s="20"/>
       <c r="R88" s="20"/>
       <c r="S88" s="18"/>
@@ -9517,76 +9176,84 @@
         <v>531</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="18">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="E89" s="20" t="s">
-        <v>527</v>
+        <v>62</v>
       </c>
       <c r="F89" s="51" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="H89" s="20"/>
+        <v>533</v>
+      </c>
+      <c r="H89" s="20" t="s">
+        <v>534</v>
+      </c>
       <c r="I89" s="18"/>
-      <c r="J89" s="31"/>
-      <c r="K89" s="31"/>
+      <c r="J89" s="31">
+        <v>42826</v>
+      </c>
+      <c r="K89" s="31">
+        <v>43251</v>
+      </c>
       <c r="L89" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M89" s="53">
-        <v>1591073</v>
+        <v>695639</v>
       </c>
       <c r="N89" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O89" s="20" t="s">
-        <v>546</v>
-      </c>
-      <c r="P89" s="20"/>
+        <v>437</v>
+      </c>
+      <c r="P89" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="Q89" s="20"/>
       <c r="R89" s="20"/>
       <c r="S89" s="18"/>
       <c r="T89" s="33" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="18">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="E90" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F90" s="51" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="H90" s="20" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="I90" s="18"/>
       <c r="J90" s="31">
@@ -9596,450 +9263,452 @@
         <v>43190</v>
       </c>
       <c r="L90" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M90" s="53">
-        <v>492527</v>
+        <v>499825</v>
       </c>
       <c r="N90" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O90" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="P90" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q90" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="R90" s="20" t="s">
-        <v>250</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="P90" s="20"/>
+      <c r="Q90" s="20"/>
+      <c r="R90" s="20"/>
       <c r="S90" s="18"/>
       <c r="T90" s="33" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="18">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="E91" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F91" s="51" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="H91" s="20" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="I91" s="18"/>
       <c r="J91" s="31">
-        <v>42856</v>
+        <v>42826</v>
       </c>
       <c r="K91" s="31">
-        <v>43220</v>
+        <v>43190</v>
       </c>
       <c r="L91" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M91" s="53">
-        <v>452324</v>
+        <v>490375</v>
       </c>
       <c r="N91" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O91" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="P91" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q91" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="R91" s="20" t="s">
-        <v>250</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="P91" s="20"/>
+      <c r="Q91" s="20"/>
+      <c r="R91" s="20"/>
       <c r="S91" s="18"/>
       <c r="T91" s="33" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="18">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="E92" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F92" s="51" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="H92" s="20" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="I92" s="18"/>
       <c r="J92" s="31">
         <v>42826</v>
       </c>
       <c r="K92" s="31">
-        <v>43190</v>
+        <v>43220</v>
       </c>
       <c r="L92" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M92" s="53">
-        <v>500000</v>
+        <v>408589</v>
       </c>
       <c r="N92" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O92" s="20" t="s">
-        <v>459</v>
-      </c>
-      <c r="P92" s="20"/>
+        <v>407</v>
+      </c>
+      <c r="P92" s="49" t="s">
+        <v>68</v>
+      </c>
       <c r="Q92" s="20"/>
       <c r="R92" s="20"/>
       <c r="S92" s="18"/>
       <c r="T92" s="33" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="18">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="E93" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F93" s="51" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="H93" s="20" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="I93" s="18"/>
       <c r="J93" s="31">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="K93" s="31">
-        <v>43251</v>
+        <v>43220</v>
       </c>
       <c r="L93" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M93" s="53">
-        <v>483455</v>
+        <v>469049</v>
       </c>
       <c r="N93" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O93" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="P93" s="49" t="s">
+        <v>353</v>
+      </c>
+      <c r="P93" s="20" t="s">
         <v>68</v>
       </c>
       <c r="Q93" s="20"/>
       <c r="R93" s="20"/>
       <c r="S93" s="18"/>
       <c r="T93" s="33" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="18">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C94" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="E94" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F94" s="51" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="H94" s="20" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="I94" s="18"/>
       <c r="J94" s="31">
         <v>42826</v>
       </c>
       <c r="K94" s="31">
-        <v>43251</v>
+        <v>43190</v>
       </c>
       <c r="L94" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M94" s="53">
-        <v>695639</v>
+        <v>327239</v>
       </c>
       <c r="N94" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O94" s="20" t="s">
-        <v>469</v>
+        <v>267</v>
       </c>
       <c r="P94" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Q94" s="20"/>
-      <c r="R94" s="20"/>
+      <c r="Q94" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="R94" s="20" t="s">
+        <v>250</v>
+      </c>
       <c r="S94" s="18"/>
       <c r="T94" s="33" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="18">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="E95" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F95" s="51" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="H95" s="20" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="I95" s="18"/>
       <c r="J95" s="31">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="K95" s="31">
-        <v>43190</v>
+        <v>43220</v>
       </c>
       <c r="L95" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M95" s="53">
-        <v>499825</v>
+        <v>208500</v>
       </c>
       <c r="N95" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O95" s="20" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="P95" s="20"/>
       <c r="Q95" s="20"/>
-      <c r="R95" s="20"/>
+      <c r="R95" s="20" t="s">
+        <v>250</v>
+      </c>
       <c r="S95" s="18"/>
       <c r="T95" s="33" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="18">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="E96" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F96" s="51" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="H96" s="20" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="I96" s="18"/>
       <c r="J96" s="31">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="K96" s="31">
-        <v>43190</v>
+        <v>43220</v>
       </c>
       <c r="L96" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M96" s="53">
-        <v>490375</v>
+        <v>499000</v>
       </c>
       <c r="N96" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O96" s="20" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="P96" s="20"/>
       <c r="Q96" s="20"/>
-      <c r="R96" s="20"/>
+      <c r="R96" s="20" t="s">
+        <v>250</v>
+      </c>
       <c r="S96" s="18"/>
       <c r="T96" s="33" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="18">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C97" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="E97" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F97" s="51" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="H97" s="20" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="I97" s="18"/>
       <c r="J97" s="31">
         <v>42826</v>
       </c>
       <c r="K97" s="31">
-        <v>43220</v>
+        <v>43190</v>
       </c>
       <c r="L97" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M97" s="53">
-        <v>408589</v>
+        <v>350780</v>
       </c>
       <c r="N97" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O97" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="P97" s="49" t="s">
+        <v>353</v>
+      </c>
+      <c r="P97" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="Q97" s="20"/>
-      <c r="R97" s="20"/>
+      <c r="Q97" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="R97" s="20" t="s">
+        <v>250</v>
+      </c>
       <c r="S97" s="18"/>
       <c r="T97" s="33" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="18">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="E98" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F98" s="51" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="H98" s="20" t="s">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="I98" s="18"/>
       <c r="J98" s="31">
         <v>42856</v>
       </c>
       <c r="K98" s="31">
-        <v>43220</v>
+        <v>43190</v>
       </c>
       <c r="L98" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M98" s="53">
-        <v>469049</v>
+        <v>394466</v>
       </c>
       <c r="N98" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O98" s="20" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="P98" s="20" t="s">
         <v>68</v>
@@ -10048,145 +9717,145 @@
       <c r="R98" s="20"/>
       <c r="S98" s="18"/>
       <c r="T98" s="33" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="18">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="E99" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F99" s="51" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="H99" s="20" t="s">
-        <v>588</v>
+        <v>565</v>
       </c>
       <c r="I99" s="18"/>
       <c r="J99" s="31">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="K99" s="31">
-        <v>43190</v>
+        <v>43220</v>
       </c>
       <c r="L99" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M99" s="53">
-        <v>327239</v>
+        <v>476102</v>
       </c>
       <c r="N99" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O99" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="P99" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="P99" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Q99" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="R99" s="20" t="s">
-        <v>250</v>
-      </c>
+      <c r="Q99" s="20"/>
+      <c r="R99" s="20"/>
       <c r="S99" s="18"/>
       <c r="T99" s="33" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="18">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="E100" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F100" s="51" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="H100" s="20" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="I100" s="18"/>
       <c r="J100" s="31">
         <v>42856</v>
       </c>
       <c r="K100" s="31">
-        <v>43220</v>
+        <v>43312</v>
       </c>
       <c r="L100" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M100" s="53">
-        <v>208500</v>
+        <v>499155</v>
       </c>
       <c r="N100" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O100" s="20" t="s">
-        <v>593</v>
-      </c>
-      <c r="P100" s="20"/>
-      <c r="Q100" s="20"/>
+        <v>353</v>
+      </c>
+      <c r="P100" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q100" s="20" t="s">
+        <v>250</v>
+      </c>
       <c r="R100" s="20" t="s">
         <v>250</v>
       </c>
       <c r="S100" s="18"/>
       <c r="T100" s="33" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="18">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="E101" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F101" s="51" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="H101" s="20" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="I101" s="18"/>
       <c r="J101" s="31">
@@ -10196,128 +9865,120 @@
         <v>43220</v>
       </c>
       <c r="L101" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M101" s="53">
-        <v>499000</v>
+        <v>271373</v>
       </c>
       <c r="N101" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O101" s="20" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="P101" s="20"/>
       <c r="Q101" s="20"/>
-      <c r="R101" s="20" t="s">
-        <v>250</v>
-      </c>
+      <c r="R101" s="20"/>
       <c r="S101" s="18"/>
       <c r="T101" s="33" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="18">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C102" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="E102" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F102" s="51" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="H102" s="20" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="I102" s="18"/>
       <c r="J102" s="31">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="K102" s="31">
-        <v>43190</v>
+        <v>43220</v>
       </c>
       <c r="L102" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M102" s="53">
-        <v>350780</v>
+        <v>448950</v>
       </c>
       <c r="N102" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O102" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="P102" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q102" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="R102" s="20" t="s">
-        <v>250</v>
-      </c>
+        <v>590</v>
+      </c>
+      <c r="P102" s="20"/>
+      <c r="Q102" s="20"/>
+      <c r="R102" s="20"/>
       <c r="S102" s="18"/>
       <c r="T102" s="33" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="18">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="E103" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F103" s="51" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="H103" s="20" t="s">
-        <v>597</v>
+        <v>565</v>
       </c>
       <c r="I103" s="18"/>
       <c r="J103" s="31">
         <v>42856</v>
       </c>
       <c r="K103" s="31">
-        <v>43190</v>
+        <v>43220</v>
       </c>
       <c r="L103" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M103" s="53">
-        <v>394466</v>
+        <v>499798</v>
       </c>
       <c r="N103" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O103" s="20" t="s">
-        <v>407</v>
+        <v>594</v>
       </c>
       <c r="P103" s="20" t="s">
         <v>68</v>
@@ -10326,145 +9987,139 @@
       <c r="R103" s="20"/>
       <c r="S103" s="18"/>
       <c r="T103" s="33" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="18">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="E104" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F104" s="51" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="H104" s="20" t="s">
-        <v>597</v>
+        <v>565</v>
       </c>
       <c r="I104" s="18"/>
       <c r="J104" s="31">
-        <v>42856</v>
+        <v>42826</v>
       </c>
       <c r="K104" s="31">
         <v>43220</v>
       </c>
       <c r="L104" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M104" s="53">
-        <v>476102</v>
+        <v>499995</v>
       </c>
       <c r="N104" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O104" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="P104" s="49" t="s">
-        <v>68</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="P104" s="20"/>
       <c r="Q104" s="20"/>
       <c r="R104" s="20"/>
       <c r="S104" s="18"/>
       <c r="T104" s="33" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="18">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="E105" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F105" s="51" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H105" s="20" t="s">
-        <v>612</v>
+        <v>565</v>
       </c>
       <c r="I105" s="18"/>
       <c r="J105" s="31">
         <v>42856</v>
       </c>
       <c r="K105" s="31">
-        <v>43312</v>
+        <v>43251</v>
       </c>
       <c r="L105" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M105" s="53">
-        <v>499155</v>
+        <v>382974</v>
       </c>
       <c r="N105" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O105" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="P105" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="P105" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="Q105" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="R105" s="20" t="s">
-        <v>250</v>
-      </c>
+      <c r="Q105" s="20"/>
+      <c r="R105" s="20"/>
       <c r="S105" s="18"/>
       <c r="T105" s="33" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="18">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C106" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="E106" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F106" s="51" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="H106" s="20" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="I106" s="18"/>
       <c r="J106" s="31">
@@ -10474,120 +10129,122 @@
         <v>43220</v>
       </c>
       <c r="L106" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M106" s="53">
-        <v>271373</v>
+        <v>271764</v>
       </c>
       <c r="N106" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O106" s="20" t="s">
-        <v>617</v>
-      </c>
-      <c r="P106" s="20"/>
+        <v>341</v>
+      </c>
+      <c r="P106" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="Q106" s="20"/>
       <c r="R106" s="20"/>
       <c r="S106" s="18"/>
       <c r="T106" s="33" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="18">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="E107" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F107" s="51" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="H107" s="20" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="I107" s="18"/>
       <c r="J107" s="31">
-        <v>42856</v>
+        <v>43344</v>
       </c>
       <c r="K107" s="31">
-        <v>43220</v>
+        <v>44651</v>
       </c>
       <c r="L107" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M107" s="53">
-        <v>448950</v>
+        <v>1999053</v>
       </c>
       <c r="N107" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O107" s="20" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="P107" s="20"/>
       <c r="Q107" s="20"/>
       <c r="R107" s="20"/>
       <c r="S107" s="18"/>
       <c r="T107" s="33" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="18">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="E108" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F108" s="51" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="H108" s="20" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
       <c r="I108" s="18"/>
       <c r="J108" s="31">
-        <v>42856</v>
+        <v>43344</v>
       </c>
       <c r="K108" s="31">
-        <v>43220</v>
+        <v>44561</v>
       </c>
       <c r="L108" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M108" s="53">
-        <v>499798</v>
+        <v>1999524</v>
       </c>
       <c r="N108" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O108" s="20" t="s">
-        <v>626</v>
+        <v>353</v>
       </c>
       <c r="P108" s="20" t="s">
         <v>68</v>
@@ -10596,158 +10253,160 @@
       <c r="R108" s="20"/>
       <c r="S108" s="18"/>
       <c r="T108" s="33" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="18">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="E109" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F109" s="51" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="H109" s="20" t="s">
-        <v>597</v>
+        <v>619</v>
       </c>
       <c r="I109" s="18"/>
       <c r="J109" s="31">
-        <v>42826</v>
+        <v>43344</v>
       </c>
       <c r="K109" s="31">
-        <v>43220</v>
+        <v>44651</v>
       </c>
       <c r="L109" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M109" s="53">
-        <v>499995</v>
+        <v>2414777</v>
       </c>
       <c r="N109" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O109" s="20" t="s">
-        <v>630</v>
-      </c>
-      <c r="P109" s="20"/>
+        <v>353</v>
+      </c>
+      <c r="P109" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="Q109" s="20"/>
       <c r="R109" s="20"/>
       <c r="S109" s="18"/>
       <c r="T109" s="33" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="18">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C110" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="E110" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F110" s="51" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="H110" s="20" t="s">
-        <v>597</v>
+        <v>623</v>
       </c>
       <c r="I110" s="18"/>
       <c r="J110" s="31">
-        <v>42856</v>
+        <v>43344</v>
       </c>
       <c r="K110" s="31">
-        <v>43251</v>
+        <v>44561</v>
       </c>
       <c r="L110" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M110" s="53">
-        <v>382974</v>
+        <v>1999926</v>
       </c>
       <c r="N110" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O110" s="20" t="s">
-        <v>634</v>
-      </c>
-      <c r="P110" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="P110" s="20" t="s">
         <v>68</v>
       </c>
       <c r="Q110" s="20"/>
       <c r="R110" s="20"/>
       <c r="S110" s="18"/>
       <c r="T110" s="33" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="18">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="E111" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F111" s="51" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>637</v>
+        <v>517</v>
       </c>
       <c r="H111" s="20" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="I111" s="18"/>
       <c r="J111" s="31">
-        <v>42856</v>
+        <v>43374</v>
       </c>
       <c r="K111" s="31">
-        <v>43220</v>
+        <v>44561</v>
       </c>
       <c r="L111" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M111" s="53">
-        <v>271764</v>
+        <v>1999712</v>
       </c>
       <c r="N111" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O111" s="20" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="P111" s="20" t="s">
         <v>68</v>
@@ -10756,33 +10415,33 @@
       <c r="R111" s="20"/>
       <c r="S111" s="18"/>
       <c r="T111" s="33" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="18">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="E112" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F112" s="51" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="H112" s="20" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="I112" s="18"/>
       <c r="J112" s="31">
@@ -10792,68 +10451,70 @@
         <v>44651</v>
       </c>
       <c r="L112" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M112" s="53">
-        <v>1999053</v>
+        <v>2000000</v>
       </c>
       <c r="N112" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O112" s="20" t="s">
-        <v>643</v>
-      </c>
-      <c r="P112" s="20"/>
+        <v>422</v>
+      </c>
+      <c r="P112" s="49" t="s">
+        <v>68</v>
+      </c>
       <c r="Q112" s="20"/>
       <c r="R112" s="20"/>
       <c r="S112" s="18"/>
       <c r="T112" s="33" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="18">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C113" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="E113" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F113" s="51" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="H113" s="20" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="I113" s="18"/>
       <c r="J113" s="31">
         <v>43344</v>
       </c>
       <c r="K113" s="31">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="L113" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M113" s="53">
-        <v>1999524</v>
+        <v>1162475</v>
       </c>
       <c r="N113" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O113" s="20" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="P113" s="20" t="s">
         <v>68</v>
@@ -10862,106 +10523,104 @@
       <c r="R113" s="20"/>
       <c r="S113" s="18"/>
       <c r="T113" s="33" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="18">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C114" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>547</v>
+        <v>636</v>
       </c>
       <c r="E114" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F114" s="51" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="H114" s="20" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="I114" s="18"/>
       <c r="J114" s="31">
-        <v>43344</v>
+        <v>42979</v>
       </c>
       <c r="K114" s="31">
-        <v>44651</v>
+        <v>44196</v>
       </c>
       <c r="L114" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M114" s="53">
-        <v>2414777</v>
+        <v>3000000</v>
       </c>
       <c r="N114" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O114" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="P114" s="20" t="s">
-        <v>68</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="P114" s="20"/>
       <c r="Q114" s="20"/>
       <c r="R114" s="20"/>
       <c r="S114" s="18"/>
       <c r="T114" s="33" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="115" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="18">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C115" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>547</v>
+        <v>636</v>
       </c>
       <c r="E115" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F115" s="51" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="H115" s="20" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="I115" s="18"/>
       <c r="J115" s="31">
-        <v>43344</v>
+        <v>42979</v>
       </c>
       <c r="K115" s="31">
         <v>44561</v>
       </c>
       <c r="L115" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M115" s="53">
-        <v>1999926</v>
+        <v>1218548</v>
       </c>
       <c r="N115" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O115" s="20" t="s">
-        <v>469</v>
+        <v>353</v>
       </c>
       <c r="P115" s="20" t="s">
         <v>68</v>
@@ -10970,52 +10629,52 @@
       <c r="R115" s="20"/>
       <c r="S115" s="18"/>
       <c r="T115" s="33" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="18">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C116" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>547</v>
+        <v>636</v>
       </c>
       <c r="E116" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F116" s="51" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>549</v>
+        <v>646</v>
       </c>
       <c r="H116" s="20" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="I116" s="18"/>
       <c r="J116" s="31">
-        <v>43374</v>
+        <v>42979</v>
       </c>
       <c r="K116" s="31">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="L116" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M116" s="53">
-        <v>1999712</v>
+        <v>4716257</v>
       </c>
       <c r="N116" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O116" s="20" t="s">
-        <v>373</v>
+        <v>266</v>
       </c>
       <c r="P116" s="20" t="s">
         <v>68</v>
@@ -11024,212 +10683,212 @@
       <c r="R116" s="20"/>
       <c r="S116" s="18"/>
       <c r="T116" s="33" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="18">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C117" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>547</v>
+        <v>636</v>
       </c>
       <c r="E117" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F117" s="51" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="H117" s="20" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="I117" s="18"/>
       <c r="J117" s="31">
-        <v>43344</v>
+        <v>42979</v>
       </c>
       <c r="K117" s="31">
-        <v>44651</v>
+        <v>44561</v>
       </c>
       <c r="L117" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M117" s="53">
-        <v>2000000</v>
+        <v>2359553</v>
       </c>
       <c r="N117" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O117" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="P117" s="49" t="s">
+        <v>652</v>
+      </c>
+      <c r="P117" s="52" t="s">
         <v>68</v>
       </c>
       <c r="Q117" s="20"/>
       <c r="R117" s="20"/>
       <c r="S117" s="18"/>
       <c r="T117" s="33" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="118" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="18">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C118" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>547</v>
+        <v>636</v>
       </c>
       <c r="E118" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F118" s="51" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="H118" s="20" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="I118" s="18"/>
       <c r="J118" s="31">
-        <v>43344</v>
+        <v>42979</v>
       </c>
       <c r="K118" s="31">
         <v>44651</v>
       </c>
       <c r="L118" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M118" s="53">
-        <v>1162475</v>
+        <v>3600000</v>
       </c>
       <c r="N118" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O118" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="P118" s="20" t="s">
-        <v>68</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="P118" s="20"/>
       <c r="Q118" s="20"/>
       <c r="R118" s="20"/>
       <c r="S118" s="18"/>
       <c r="T118" s="33" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="18">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C119" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>668</v>
+        <v>636</v>
       </c>
       <c r="E119" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F119" s="51" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="H119" s="20" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I119" s="18"/>
       <c r="J119" s="31">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="K119" s="31">
-        <v>44196</v>
+        <v>44651</v>
       </c>
       <c r="L119" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M119" s="53">
-        <v>3000000</v>
+        <v>3463675</v>
       </c>
       <c r="N119" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O119" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="P119" s="20"/>
+        <v>387</v>
+      </c>
+      <c r="P119" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="Q119" s="20"/>
       <c r="R119" s="20"/>
       <c r="S119" s="18"/>
       <c r="T119" s="33" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="18">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C120" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>668</v>
+        <v>636</v>
       </c>
       <c r="E120" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F120" s="51" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="H120" s="20" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="I120" s="18"/>
       <c r="J120" s="31">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="K120" s="31">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="L120" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M120" s="53">
-        <v>1218548</v>
+        <v>3093436</v>
       </c>
       <c r="N120" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O120" s="20" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="P120" s="20" t="s">
         <v>68</v>
@@ -11238,52 +10897,48 @@
       <c r="R120" s="20"/>
       <c r="S120" s="18"/>
       <c r="T120" s="33" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="18">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C121" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D121" s="20" t="s">
+        <v>667</v>
+      </c>
+      <c r="E121" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="F121" s="51" t="s">
         <v>668</v>
       </c>
-      <c r="E121" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F121" s="51" t="s">
-        <v>677</v>
-      </c>
       <c r="G121" s="11" t="s">
-        <v>678</v>
-      </c>
-      <c r="H121" s="20" t="s">
-        <v>679</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="H121" s="20"/>
       <c r="I121" s="18"/>
-      <c r="J121" s="31">
-        <v>42979</v>
-      </c>
+      <c r="J121" s="31"/>
       <c r="K121" s="31">
         <v>44651</v>
       </c>
       <c r="L121" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M121" s="53">
-        <v>4716257</v>
+        <v>624500</v>
       </c>
       <c r="N121" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O121" s="20" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="P121" s="20" t="s">
         <v>68</v>
@@ -11292,158 +10947,148 @@
       <c r="R121" s="20"/>
       <c r="S121" s="18"/>
       <c r="T121" s="33" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="122" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="18">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C122" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D122" s="20" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E122" s="20" t="s">
-        <v>62</v>
+        <v>495</v>
       </c>
       <c r="F122" s="51" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="G122" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="H122" s="20"/>
+      <c r="I122" s="18"/>
+      <c r="J122" s="31"/>
+      <c r="K122" s="31">
+        <v>44651</v>
+      </c>
+      <c r="L122" s="17" t="s">
         <v>682</v>
       </c>
-      <c r="H122" s="20" t="s">
-        <v>683</v>
-      </c>
-      <c r="I122" s="18"/>
-      <c r="J122" s="31">
-        <v>42979</v>
-      </c>
-      <c r="K122" s="31">
-        <v>44561</v>
-      </c>
-      <c r="L122" s="17" t="s">
-        <v>755</v>
-      </c>
       <c r="M122" s="53">
-        <v>2359553</v>
+        <v>1027819</v>
       </c>
       <c r="N122" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O122" s="20" t="s">
-        <v>684</v>
-      </c>
-      <c r="P122" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="P122" s="20" t="s">
         <v>68</v>
       </c>
       <c r="Q122" s="20"/>
       <c r="R122" s="20"/>
       <c r="S122" s="18"/>
       <c r="T122" s="33" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="123" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="18">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C123" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D123" s="20" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E123" s="20" t="s">
-        <v>62</v>
+        <v>495</v>
       </c>
       <c r="F123" s="51" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>687</v>
-      </c>
-      <c r="H123" s="20" t="s">
-        <v>688</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="H123" s="20"/>
       <c r="I123" s="18"/>
-      <c r="J123" s="31">
-        <v>42979</v>
-      </c>
+      <c r="J123" s="31"/>
       <c r="K123" s="31">
         <v>44651</v>
       </c>
       <c r="L123" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M123" s="53">
-        <v>3600000</v>
+        <v>744463</v>
       </c>
       <c r="N123" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O123" s="20" t="s">
-        <v>689</v>
-      </c>
-      <c r="P123" s="20"/>
+        <v>353</v>
+      </c>
+      <c r="P123" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="Q123" s="20"/>
       <c r="R123" s="20"/>
       <c r="S123" s="18"/>
       <c r="T123" s="33" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="124" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="18">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C124" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E124" s="20" t="s">
-        <v>62</v>
+        <v>495</v>
       </c>
       <c r="F124" s="51" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>692</v>
-      </c>
-      <c r="H124" s="20" t="s">
-        <v>693</v>
-      </c>
+        <v>675</v>
+      </c>
+      <c r="H124" s="20"/>
       <c r="I124" s="18"/>
-      <c r="J124" s="31">
-        <v>43009</v>
-      </c>
+      <c r="J124" s="31"/>
       <c r="K124" s="31">
         <v>44651</v>
       </c>
       <c r="L124" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M124" s="53">
-        <v>3463675</v>
+        <v>662083</v>
       </c>
       <c r="N124" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O124" s="20" t="s">
-        <v>419</v>
+        <v>353</v>
       </c>
       <c r="P124" s="20" t="s">
         <v>68</v>
@@ -11452,52 +11097,48 @@
       <c r="R124" s="20"/>
       <c r="S124" s="18"/>
       <c r="T124" s="33" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="18">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
       <c r="C125" s="29" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D125" s="20" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E125" s="20" t="s">
-        <v>62</v>
+        <v>495</v>
       </c>
       <c r="F125" s="51" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>696</v>
-      </c>
-      <c r="H125" s="20" t="s">
-        <v>697</v>
-      </c>
+        <v>677</v>
+      </c>
+      <c r="H125" s="20"/>
       <c r="I125" s="18"/>
-      <c r="J125" s="31">
-        <v>43009</v>
-      </c>
+      <c r="J125" s="31"/>
       <c r="K125" s="31">
         <v>44651</v>
       </c>
       <c r="L125" s="17" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
       <c r="M125" s="53">
-        <v>3093436</v>
+        <v>1500000</v>
       </c>
       <c r="N125" s="20" t="s">
         <v>250</v>
       </c>
       <c r="O125" s="20" t="s">
-        <v>385</v>
+        <v>290</v>
       </c>
       <c r="P125" s="20" t="s">
         <v>68</v>
@@ -11506,664 +11147,272 @@
       <c r="R125" s="20"/>
       <c r="S125" s="18"/>
       <c r="T125" s="33" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="126" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="18">
-        <v>125</v>
-      </c>
-      <c r="B126" s="20" t="s">
-        <v>751</v>
-      </c>
-      <c r="C126" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="D126" s="20" t="s">
-        <v>699</v>
-      </c>
-      <c r="E126" s="20" t="s">
-        <v>700</v>
-      </c>
-      <c r="F126" s="51" t="s">
-        <v>701</v>
-      </c>
-      <c r="G126" s="11" t="s">
-        <v>702</v>
-      </c>
-      <c r="H126" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="I126" s="18"/>
-      <c r="J126" s="31">
-        <v>43070</v>
-      </c>
-      <c r="K126" s="31">
-        <v>44469</v>
-      </c>
-      <c r="L126" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="M126" s="53">
-        <v>9947570</v>
-      </c>
-      <c r="N126" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="O126" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="P126" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q126" s="20" t="s">
-        <v>704</v>
-      </c>
-      <c r="R126" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="S126" s="18"/>
-      <c r="T126" s="33" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="18">
-        <v>126</v>
-      </c>
-      <c r="B127" s="20" t="s">
-        <v>751</v>
-      </c>
-      <c r="C127" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="D127" s="20" t="s">
-        <v>699</v>
-      </c>
-      <c r="E127" s="20" t="s">
-        <v>700</v>
-      </c>
-      <c r="F127" s="51" t="s">
-        <v>706</v>
-      </c>
-      <c r="G127" s="11" t="s">
-        <v>707</v>
-      </c>
-      <c r="H127" s="20" t="s">
-        <v>708</v>
-      </c>
-      <c r="I127" s="18"/>
-      <c r="J127" s="31">
-        <v>43191</v>
-      </c>
-      <c r="K127" s="31">
-        <v>44469</v>
-      </c>
-      <c r="L127" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="M127" s="53">
-        <v>6968180</v>
-      </c>
-      <c r="N127" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="O127" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="P127" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q127" s="20" t="s">
-        <v>709</v>
-      </c>
-      <c r="R127" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="S127" s="18"/>
-      <c r="T127" s="33" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="18">
-        <v>127</v>
-      </c>
-      <c r="B128" s="20" t="s">
-        <v>751</v>
-      </c>
-      <c r="C128" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="D128" s="20" t="s">
-        <v>711</v>
-      </c>
-      <c r="E128" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="F128" s="51" t="s">
-        <v>712</v>
-      </c>
-      <c r="G128" s="11" t="s">
-        <v>713</v>
-      </c>
-      <c r="H128" s="20" t="s">
-        <v>714</v>
-      </c>
-      <c r="I128" s="18"/>
-      <c r="J128" s="31">
-        <v>43221</v>
-      </c>
-      <c r="K128" s="31">
-        <v>44469</v>
-      </c>
-      <c r="L128" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="M128" s="53">
-        <v>1150194</v>
-      </c>
-      <c r="N128" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="O128" s="20" t="s">
-        <v>715</v>
-      </c>
-      <c r="P128" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q128" s="20" t="s">
-        <v>716</v>
-      </c>
-      <c r="R128" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="S128" s="18"/>
-      <c r="T128" s="33" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="129" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="18">
-        <v>128</v>
-      </c>
-      <c r="B129" s="20" t="s">
-        <v>751</v>
-      </c>
-      <c r="C129" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="D129" s="20" t="s">
-        <v>711</v>
-      </c>
-      <c r="E129" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="F129" s="51" t="s">
-        <v>718</v>
-      </c>
-      <c r="G129" s="11" t="s">
-        <v>719</v>
-      </c>
-      <c r="H129" s="20" t="s">
-        <v>720</v>
-      </c>
-      <c r="I129" s="18"/>
-      <c r="J129" s="31">
-        <v>43221</v>
-      </c>
-      <c r="K129" s="31">
-        <v>44286</v>
-      </c>
-      <c r="L129" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="M129" s="53">
-        <v>1475845</v>
-      </c>
-      <c r="N129" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="O129" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="P129" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q129" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="R129" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="S129" s="18"/>
-      <c r="T129" s="33" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="130" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="18">
-        <v>129</v>
-      </c>
-      <c r="B130" s="20" t="s">
-        <v>751</v>
-      </c>
-      <c r="C130" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="D130" s="20" t="s">
-        <v>711</v>
-      </c>
-      <c r="E130" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="F130" s="51" t="s">
-        <v>722</v>
-      </c>
-      <c r="G130" s="11" t="s">
-        <v>723</v>
-      </c>
-      <c r="H130" s="20" t="s">
-        <v>724</v>
-      </c>
-      <c r="I130" s="18"/>
-      <c r="J130" s="31">
-        <v>43221</v>
-      </c>
-      <c r="K130" s="31">
-        <v>44561</v>
-      </c>
-      <c r="L130" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="M130" s="53">
-        <v>895688</v>
-      </c>
-      <c r="N130" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="O130" s="20" t="s">
-        <v>725</v>
-      </c>
-      <c r="P130" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q130" s="20" t="s">
-        <v>726</v>
-      </c>
-      <c r="R130" s="20" t="s">
-        <v>727</v>
-      </c>
-      <c r="S130" s="18"/>
-      <c r="T130" s="33" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="131" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="18">
-        <v>130</v>
-      </c>
-      <c r="B131" s="20" t="s">
-        <v>751</v>
-      </c>
-      <c r="C131" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="D131" s="20" t="s">
-        <v>711</v>
-      </c>
-      <c r="E131" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="F131" s="51" t="s">
-        <v>729</v>
-      </c>
-      <c r="G131" s="11" t="s">
-        <v>730</v>
-      </c>
-      <c r="H131" s="20" t="s">
-        <v>731</v>
-      </c>
-      <c r="I131" s="18"/>
-      <c r="J131" s="31">
-        <v>43221</v>
-      </c>
-      <c r="K131" s="31">
-        <v>44651</v>
-      </c>
-      <c r="L131" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="M131" s="53">
-        <v>1129722</v>
-      </c>
-      <c r="N131" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="O131" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="P131" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q131" s="20" t="s">
-        <v>732</v>
-      </c>
-      <c r="R131" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="S131" s="18"/>
-      <c r="T131" s="33" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="132" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="18">
-        <v>131</v>
-      </c>
-      <c r="B132" s="20" t="s">
-        <v>751</v>
-      </c>
-      <c r="C132" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="D132" s="20" t="s">
-        <v>711</v>
-      </c>
-      <c r="E132" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="F132" s="51" t="s">
-        <v>734</v>
-      </c>
-      <c r="G132" s="11" t="s">
-        <v>735</v>
-      </c>
-      <c r="H132" s="20" t="s">
-        <v>736</v>
-      </c>
-      <c r="I132" s="18"/>
-      <c r="J132" s="31">
-        <v>43221</v>
-      </c>
-      <c r="K132" s="31">
-        <v>44561</v>
-      </c>
-      <c r="L132" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="M132" s="53">
-        <v>773236</v>
-      </c>
-      <c r="N132" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="O132" s="20" t="s">
-        <v>725</v>
-      </c>
-      <c r="P132" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q132" s="20" t="s">
-        <v>737</v>
-      </c>
-      <c r="R132" s="20" t="s">
-        <v>738</v>
-      </c>
-      <c r="S132" s="18"/>
-      <c r="T132" s="33" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="133" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="18">
-        <v>132</v>
-      </c>
-      <c r="B133" s="20" t="s">
-        <v>751</v>
-      </c>
-      <c r="C133" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="D133" s="20" t="s">
-        <v>740</v>
-      </c>
-      <c r="E133" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="F133" s="51" t="s">
-        <v>741</v>
-      </c>
-      <c r="G133" s="11" t="s">
-        <v>742</v>
-      </c>
-      <c r="H133" s="20"/>
-      <c r="I133" s="18"/>
-      <c r="J133" s="31"/>
-      <c r="K133" s="31">
-        <v>44651</v>
-      </c>
-      <c r="L133" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="M133" s="53">
-        <v>624500</v>
-      </c>
-      <c r="N133" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="O133" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="P133" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q133" s="20"/>
-      <c r="R133" s="20"/>
-      <c r="S133" s="18"/>
-      <c r="T133" s="33" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="134" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="18">
-        <v>133</v>
-      </c>
-      <c r="B134" s="20" t="s">
-        <v>751</v>
-      </c>
-      <c r="C134" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="D134" s="20" t="s">
-        <v>740</v>
-      </c>
-      <c r="E134" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="F134" s="51" t="s">
-        <v>743</v>
-      </c>
-      <c r="G134" s="11" t="s">
-        <v>744</v>
-      </c>
-      <c r="H134" s="20"/>
-      <c r="I134" s="18"/>
-      <c r="J134" s="31"/>
-      <c r="K134" s="31">
-        <v>44651</v>
-      </c>
-      <c r="L134" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="M134" s="53">
-        <v>1027819</v>
-      </c>
-      <c r="N134" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="O134" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="P134" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q134" s="20"/>
-      <c r="R134" s="20"/>
-      <c r="S134" s="18"/>
-      <c r="T134" s="33" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="135" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="18">
-        <v>134</v>
-      </c>
-      <c r="B135" s="20" t="s">
-        <v>751</v>
-      </c>
-      <c r="C135" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="D135" s="20" t="s">
-        <v>740</v>
-      </c>
-      <c r="E135" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="F135" s="51" t="s">
-        <v>745</v>
-      </c>
-      <c r="G135" s="11" t="s">
-        <v>746</v>
-      </c>
-      <c r="H135" s="20"/>
-      <c r="I135" s="18"/>
-      <c r="J135" s="31"/>
-      <c r="K135" s="31">
-        <v>44651</v>
-      </c>
-      <c r="L135" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="M135" s="53">
-        <v>744463</v>
-      </c>
-      <c r="N135" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="O135" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="P135" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q135" s="20"/>
-      <c r="R135" s="20"/>
-      <c r="S135" s="18"/>
-      <c r="T135" s="33" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="136" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="18">
-        <v>135</v>
-      </c>
-      <c r="B136" s="20" t="s">
-        <v>751</v>
-      </c>
-      <c r="C136" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="D136" s="20" t="s">
-        <v>740</v>
-      </c>
-      <c r="E136" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="F136" s="51" t="s">
-        <v>747</v>
-      </c>
-      <c r="G136" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="H136" s="20"/>
-      <c r="I136" s="18"/>
-      <c r="J136" s="31"/>
-      <c r="K136" s="31">
-        <v>44651</v>
-      </c>
-      <c r="L136" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="M136" s="53">
-        <v>662083</v>
-      </c>
-      <c r="N136" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="O136" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="P136" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q136" s="20"/>
-      <c r="R136" s="20"/>
-      <c r="S136" s="18"/>
-      <c r="T136" s="33" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="137" spans="1:20" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="18">
-        <v>136</v>
-      </c>
-      <c r="B137" s="20" t="s">
-        <v>751</v>
-      </c>
-      <c r="C137" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="D137" s="20" t="s">
-        <v>740</v>
-      </c>
-      <c r="E137" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="F137" s="51" t="s">
-        <v>749</v>
-      </c>
-      <c r="G137" s="11" t="s">
-        <v>750</v>
-      </c>
-      <c r="H137" s="20"/>
-      <c r="I137" s="18"/>
-      <c r="J137" s="31"/>
-      <c r="K137" s="31">
-        <v>44651</v>
-      </c>
-      <c r="L137" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="M137" s="53">
-        <v>1500000</v>
-      </c>
-      <c r="N137" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="O137" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="P137" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q137" s="20"/>
-      <c r="R137" s="20"/>
-      <c r="S137" s="18"/>
-      <c r="T137" s="33" t="s">
-        <v>531</v>
-      </c>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="11"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="11"/>
+      <c r="J126" s="27"/>
+      <c r="K126" s="27"/>
+      <c r="L126" s="11"/>
+      <c r="M126" s="22"/>
+      <c r="N126" s="11"/>
+      <c r="O126" s="11"/>
+      <c r="P126" s="11"/>
+      <c r="Q126" s="15"/>
+      <c r="R126" s="15"/>
+      <c r="S126" s="11"/>
+      <c r="T126" s="12"/>
+    </row>
+    <row r="127" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="11"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="27"/>
+      <c r="K127" s="27"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="22"/>
+      <c r="N127" s="11"/>
+      <c r="O127" s="11"/>
+      <c r="P127" s="11"/>
+      <c r="Q127" s="11"/>
+      <c r="R127" s="11"/>
+      <c r="S127" s="11"/>
+      <c r="T127" s="11"/>
+    </row>
+    <row r="128" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="11"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="27"/>
+      <c r="K128" s="27"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="22"/>
+      <c r="N128" s="11"/>
+      <c r="O128" s="11"/>
+      <c r="P128" s="11"/>
+      <c r="Q128" s="11"/>
+      <c r="R128" s="11"/>
+      <c r="S128" s="11"/>
+      <c r="T128" s="11"/>
+    </row>
+    <row r="129" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="11"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="24"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="27"/>
+      <c r="K129" s="27"/>
+      <c r="L129" s="11"/>
+      <c r="M129" s="22"/>
+      <c r="N129" s="11"/>
+      <c r="O129" s="11"/>
+      <c r="P129" s="11"/>
+      <c r="Q129" s="11"/>
+      <c r="R129" s="11"/>
+      <c r="S129" s="11"/>
+      <c r="T129" s="11"/>
+    </row>
+    <row r="130" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="11"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11"/>
+      <c r="J130" s="27"/>
+      <c r="K130" s="27"/>
+      <c r="L130" s="11"/>
+      <c r="M130" s="22"/>
+      <c r="N130" s="11"/>
+      <c r="O130" s="11"/>
+      <c r="P130" s="11"/>
+      <c r="Q130" s="11"/>
+      <c r="R130" s="11"/>
+      <c r="S130" s="11"/>
+      <c r="T130" s="11"/>
+    </row>
+    <row r="131" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="11"/>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="27"/>
+      <c r="K131" s="27"/>
+      <c r="L131" s="11"/>
+      <c r="M131" s="22"/>
+      <c r="N131" s="11"/>
+      <c r="O131" s="11"/>
+      <c r="P131" s="11"/>
+      <c r="Q131" s="11"/>
+      <c r="R131" s="11"/>
+      <c r="S131" s="11"/>
+      <c r="T131" s="11"/>
+    </row>
+    <row r="132" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="11"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11"/>
+      <c r="J132" s="27"/>
+      <c r="K132" s="27"/>
+      <c r="L132" s="11"/>
+      <c r="M132" s="22"/>
+      <c r="N132" s="11"/>
+      <c r="O132" s="11"/>
+      <c r="P132" s="11"/>
+      <c r="Q132" s="11"/>
+      <c r="R132" s="11"/>
+      <c r="S132" s="11"/>
+      <c r="T132" s="11"/>
+    </row>
+    <row r="133" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="11"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="24"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="11"/>
+      <c r="J133" s="27"/>
+      <c r="K133" s="27"/>
+      <c r="L133" s="11"/>
+      <c r="M133" s="22"/>
+      <c r="N133" s="11"/>
+      <c r="O133" s="11"/>
+      <c r="P133" s="11"/>
+      <c r="Q133" s="11"/>
+      <c r="R133" s="11"/>
+      <c r="S133" s="11"/>
+      <c r="T133" s="11"/>
+    </row>
+    <row r="134" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="11"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="24"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="27"/>
+      <c r="K134" s="27"/>
+      <c r="L134" s="11"/>
+      <c r="M134" s="22"/>
+      <c r="N134" s="11"/>
+      <c r="O134" s="11"/>
+      <c r="P134" s="11"/>
+      <c r="Q134" s="11"/>
+      <c r="R134" s="11"/>
+      <c r="S134" s="11"/>
+      <c r="T134" s="11"/>
+    </row>
+    <row r="135" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="11"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="27"/>
+      <c r="K135" s="27"/>
+      <c r="L135" s="11"/>
+      <c r="M135" s="22"/>
+      <c r="N135" s="11"/>
+      <c r="O135" s="11"/>
+      <c r="P135" s="11"/>
+      <c r="Q135" s="11"/>
+      <c r="R135" s="11"/>
+      <c r="S135" s="11"/>
+      <c r="T135" s="11"/>
+    </row>
+    <row r="136" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="11"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="24"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="11"/>
+      <c r="J136" s="27"/>
+      <c r="K136" s="27"/>
+      <c r="L136" s="11"/>
+      <c r="M136" s="22"/>
+      <c r="N136" s="11"/>
+      <c r="O136" s="11"/>
+      <c r="P136" s="11"/>
+      <c r="Q136" s="11"/>
+      <c r="R136" s="11"/>
+      <c r="S136" s="11"/>
+      <c r="T136" s="11"/>
+    </row>
+    <row r="137" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="11"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="24"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="27"/>
+      <c r="K137" s="27"/>
+      <c r="L137" s="11"/>
+      <c r="M137" s="22"/>
+      <c r="N137" s="11"/>
+      <c r="O137" s="11"/>
+      <c r="P137" s="11"/>
+      <c r="Q137" s="11"/>
+      <c r="R137" s="11"/>
+      <c r="S137" s="11"/>
+      <c r="T137" s="11"/>
     </row>
     <row r="138" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="11"/>
@@ -12182,15 +11431,15 @@
       <c r="N138" s="11"/>
       <c r="O138" s="11"/>
       <c r="P138" s="11"/>
-      <c r="Q138" s="15"/>
-      <c r="R138" s="15"/>
+      <c r="Q138" s="11"/>
+      <c r="R138" s="11"/>
       <c r="S138" s="11"/>
-      <c r="T138" s="12"/>
+      <c r="T138" s="11"/>
     </row>
     <row r="139" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
-      <c r="C139" s="13"/>
+      <c r="C139" s="11"/>
       <c r="D139" s="11"/>
       <c r="E139" s="11"/>
       <c r="F139" s="24"/>
@@ -13696,7 +12945,6 @@
       <c r="J207" s="27"/>
       <c r="K207" s="27"/>
       <c r="L207" s="11"/>
-      <c r="M207" s="22"/>
       <c r="N207" s="11"/>
       <c r="O207" s="11"/>
       <c r="P207" s="11"/>
@@ -13718,7 +12966,6 @@
       <c r="J208" s="27"/>
       <c r="K208" s="27"/>
       <c r="L208" s="11"/>
-      <c r="M208" s="22"/>
       <c r="N208" s="11"/>
       <c r="O208" s="11"/>
       <c r="P208" s="11"/>
@@ -13740,7 +12987,6 @@
       <c r="J209" s="27"/>
       <c r="K209" s="27"/>
       <c r="L209" s="11"/>
-      <c r="M209" s="22"/>
       <c r="N209" s="11"/>
       <c r="O209" s="11"/>
       <c r="P209" s="11"/>
@@ -13762,7 +13008,6 @@
       <c r="J210" s="27"/>
       <c r="K210" s="27"/>
       <c r="L210" s="11"/>
-      <c r="M210" s="22"/>
       <c r="N210" s="11"/>
       <c r="O210" s="11"/>
       <c r="P210" s="11"/>
@@ -13784,7 +13029,6 @@
       <c r="J211" s="27"/>
       <c r="K211" s="27"/>
       <c r="L211" s="11"/>
-      <c r="M211" s="22"/>
       <c r="N211" s="11"/>
       <c r="O211" s="11"/>
       <c r="P211" s="11"/>
@@ -13806,7 +13050,6 @@
       <c r="J212" s="27"/>
       <c r="K212" s="27"/>
       <c r="L212" s="11"/>
-      <c r="M212" s="22"/>
       <c r="N212" s="11"/>
       <c r="O212" s="11"/>
       <c r="P212" s="11"/>
@@ -13828,7 +13071,6 @@
       <c r="J213" s="27"/>
       <c r="K213" s="27"/>
       <c r="L213" s="11"/>
-      <c r="M213" s="22"/>
       <c r="N213" s="11"/>
       <c r="O213" s="11"/>
       <c r="P213" s="11"/>
@@ -13850,7 +13092,6 @@
       <c r="J214" s="27"/>
       <c r="K214" s="27"/>
       <c r="L214" s="11"/>
-      <c r="M214" s="22"/>
       <c r="N214" s="11"/>
       <c r="O214" s="11"/>
       <c r="P214" s="11"/>
@@ -13872,7 +13113,6 @@
       <c r="J215" s="27"/>
       <c r="K215" s="27"/>
       <c r="L215" s="11"/>
-      <c r="M215" s="22"/>
       <c r="N215" s="11"/>
       <c r="O215" s="11"/>
       <c r="P215" s="11"/>
@@ -13894,7 +13134,6 @@
       <c r="J216" s="27"/>
       <c r="K216" s="27"/>
       <c r="L216" s="11"/>
-      <c r="M216" s="22"/>
       <c r="N216" s="11"/>
       <c r="O216" s="11"/>
       <c r="P216" s="11"/>
@@ -13916,7 +13155,6 @@
       <c r="J217" s="27"/>
       <c r="K217" s="27"/>
       <c r="L217" s="11"/>
-      <c r="M217" s="22"/>
       <c r="N217" s="11"/>
       <c r="O217" s="11"/>
       <c r="P217" s="11"/>
@@ -13938,7 +13176,6 @@
       <c r="J218" s="27"/>
       <c r="K218" s="27"/>
       <c r="L218" s="11"/>
-      <c r="M218" s="22"/>
       <c r="N218" s="11"/>
       <c r="O218" s="11"/>
       <c r="P218" s="11"/>
@@ -30117,279 +29354,19 @@
       <c r="S988" s="11"/>
       <c r="T988" s="11"/>
     </row>
-    <row r="989" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A989" s="11"/>
-      <c r="B989" s="11"/>
-      <c r="C989" s="11"/>
-      <c r="D989" s="11"/>
-      <c r="E989" s="11"/>
-      <c r="F989" s="24"/>
-      <c r="G989" s="11"/>
-      <c r="H989" s="11"/>
-      <c r="I989" s="11"/>
-      <c r="J989" s="27"/>
-      <c r="K989" s="27"/>
-      <c r="L989" s="11"/>
-      <c r="N989" s="11"/>
-      <c r="O989" s="11"/>
-      <c r="P989" s="11"/>
-      <c r="Q989" s="11"/>
-      <c r="R989" s="11"/>
-      <c r="S989" s="11"/>
-      <c r="T989" s="11"/>
-    </row>
-    <row r="990" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A990" s="11"/>
-      <c r="B990" s="11"/>
-      <c r="C990" s="11"/>
-      <c r="D990" s="11"/>
-      <c r="E990" s="11"/>
-      <c r="F990" s="24"/>
-      <c r="G990" s="11"/>
-      <c r="H990" s="11"/>
-      <c r="I990" s="11"/>
-      <c r="J990" s="27"/>
-      <c r="K990" s="27"/>
-      <c r="L990" s="11"/>
-      <c r="N990" s="11"/>
-      <c r="O990" s="11"/>
-      <c r="P990" s="11"/>
-      <c r="Q990" s="11"/>
-      <c r="R990" s="11"/>
-      <c r="S990" s="11"/>
-      <c r="T990" s="11"/>
-    </row>
-    <row r="991" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A991" s="11"/>
-      <c r="B991" s="11"/>
-      <c r="C991" s="11"/>
-      <c r="D991" s="11"/>
-      <c r="E991" s="11"/>
-      <c r="F991" s="24"/>
-      <c r="G991" s="11"/>
-      <c r="H991" s="11"/>
-      <c r="I991" s="11"/>
-      <c r="J991" s="27"/>
-      <c r="K991" s="27"/>
-      <c r="L991" s="11"/>
-      <c r="N991" s="11"/>
-      <c r="O991" s="11"/>
-      <c r="P991" s="11"/>
-      <c r="Q991" s="11"/>
-      <c r="R991" s="11"/>
-      <c r="S991" s="11"/>
-      <c r="T991" s="11"/>
-    </row>
-    <row r="992" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A992" s="11"/>
-      <c r="B992" s="11"/>
-      <c r="C992" s="11"/>
-      <c r="D992" s="11"/>
-      <c r="E992" s="11"/>
-      <c r="F992" s="24"/>
-      <c r="G992" s="11"/>
-      <c r="H992" s="11"/>
-      <c r="I992" s="11"/>
-      <c r="J992" s="27"/>
-      <c r="K992" s="27"/>
-      <c r="L992" s="11"/>
-      <c r="N992" s="11"/>
-      <c r="O992" s="11"/>
-      <c r="P992" s="11"/>
-      <c r="Q992" s="11"/>
-      <c r="R992" s="11"/>
-      <c r="S992" s="11"/>
-      <c r="T992" s="11"/>
-    </row>
-    <row r="993" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A993" s="11"/>
-      <c r="B993" s="11"/>
-      <c r="C993" s="11"/>
-      <c r="D993" s="11"/>
-      <c r="E993" s="11"/>
-      <c r="F993" s="24"/>
-      <c r="G993" s="11"/>
-      <c r="H993" s="11"/>
-      <c r="I993" s="11"/>
-      <c r="J993" s="27"/>
-      <c r="K993" s="27"/>
-      <c r="L993" s="11"/>
-      <c r="N993" s="11"/>
-      <c r="O993" s="11"/>
-      <c r="P993" s="11"/>
-      <c r="Q993" s="11"/>
-      <c r="R993" s="11"/>
-      <c r="S993" s="11"/>
-      <c r="T993" s="11"/>
-    </row>
-    <row r="994" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A994" s="11"/>
-      <c r="B994" s="11"/>
-      <c r="C994" s="11"/>
-      <c r="D994" s="11"/>
-      <c r="E994" s="11"/>
-      <c r="F994" s="24"/>
-      <c r="G994" s="11"/>
-      <c r="H994" s="11"/>
-      <c r="I994" s="11"/>
-      <c r="J994" s="27"/>
-      <c r="K994" s="27"/>
-      <c r="L994" s="11"/>
-      <c r="N994" s="11"/>
-      <c r="O994" s="11"/>
-      <c r="P994" s="11"/>
-      <c r="Q994" s="11"/>
-      <c r="R994" s="11"/>
-      <c r="S994" s="11"/>
-      <c r="T994" s="11"/>
-    </row>
-    <row r="995" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A995" s="11"/>
-      <c r="B995" s="11"/>
-      <c r="C995" s="11"/>
-      <c r="D995" s="11"/>
-      <c r="E995" s="11"/>
-      <c r="F995" s="24"/>
-      <c r="G995" s="11"/>
-      <c r="H995" s="11"/>
-      <c r="I995" s="11"/>
-      <c r="J995" s="27"/>
-      <c r="K995" s="27"/>
-      <c r="L995" s="11"/>
-      <c r="N995" s="11"/>
-      <c r="O995" s="11"/>
-      <c r="P995" s="11"/>
-      <c r="Q995" s="11"/>
-      <c r="R995" s="11"/>
-      <c r="S995" s="11"/>
-      <c r="T995" s="11"/>
-    </row>
-    <row r="996" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A996" s="11"/>
-      <c r="B996" s="11"/>
-      <c r="C996" s="11"/>
-      <c r="D996" s="11"/>
-      <c r="E996" s="11"/>
-      <c r="F996" s="24"/>
-      <c r="G996" s="11"/>
-      <c r="H996" s="11"/>
-      <c r="I996" s="11"/>
-      <c r="J996" s="27"/>
-      <c r="K996" s="27"/>
-      <c r="L996" s="11"/>
-      <c r="N996" s="11"/>
-      <c r="O996" s="11"/>
-      <c r="P996" s="11"/>
-      <c r="Q996" s="11"/>
-      <c r="R996" s="11"/>
-      <c r="S996" s="11"/>
-      <c r="T996" s="11"/>
-    </row>
-    <row r="997" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A997" s="11"/>
-      <c r="B997" s="11"/>
-      <c r="C997" s="11"/>
-      <c r="D997" s="11"/>
-      <c r="E997" s="11"/>
-      <c r="F997" s="24"/>
-      <c r="G997" s="11"/>
-      <c r="H997" s="11"/>
-      <c r="I997" s="11"/>
-      <c r="J997" s="27"/>
-      <c r="K997" s="27"/>
-      <c r="L997" s="11"/>
-      <c r="N997" s="11"/>
-      <c r="O997" s="11"/>
-      <c r="P997" s="11"/>
-      <c r="Q997" s="11"/>
-      <c r="R997" s="11"/>
-      <c r="S997" s="11"/>
-      <c r="T997" s="11"/>
-    </row>
-    <row r="998" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A998" s="11"/>
-      <c r="B998" s="11"/>
-      <c r="C998" s="11"/>
-      <c r="D998" s="11"/>
-      <c r="E998" s="11"/>
-      <c r="F998" s="24"/>
-      <c r="G998" s="11"/>
-      <c r="H998" s="11"/>
-      <c r="I998" s="11"/>
-      <c r="J998" s="27"/>
-      <c r="K998" s="27"/>
-      <c r="L998" s="11"/>
-      <c r="N998" s="11"/>
-      <c r="O998" s="11"/>
-      <c r="P998" s="11"/>
-      <c r="Q998" s="11"/>
-      <c r="R998" s="11"/>
-      <c r="S998" s="11"/>
-      <c r="T998" s="11"/>
-    </row>
-    <row r="999" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A999" s="11"/>
-      <c r="B999" s="11"/>
-      <c r="C999" s="11"/>
-      <c r="D999" s="11"/>
-      <c r="E999" s="11"/>
-      <c r="F999" s="24"/>
-      <c r="G999" s="11"/>
-      <c r="H999" s="11"/>
-      <c r="I999" s="11"/>
-      <c r="J999" s="27"/>
-      <c r="K999" s="27"/>
-      <c r="L999" s="11"/>
-      <c r="N999" s="11"/>
-      <c r="O999" s="11"/>
-      <c r="P999" s="11"/>
-      <c r="Q999" s="11"/>
-      <c r="R999" s="11"/>
-      <c r="S999" s="11"/>
-      <c r="T999" s="11"/>
-    </row>
-    <row r="1000" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1000" s="11"/>
-      <c r="B1000" s="11"/>
-      <c r="C1000" s="11"/>
-      <c r="D1000" s="11"/>
-      <c r="E1000" s="11"/>
-      <c r="F1000" s="24"/>
-      <c r="G1000" s="11"/>
-      <c r="H1000" s="11"/>
-      <c r="I1000" s="11"/>
-      <c r="J1000" s="27"/>
-      <c r="K1000" s="27"/>
-      <c r="L1000" s="11"/>
-      <c r="N1000" s="11"/>
-      <c r="O1000" s="11"/>
-      <c r="P1000" s="11"/>
-      <c r="Q1000" s="11"/>
-      <c r="R1000" s="11"/>
-      <c r="S1000" s="11"/>
-      <c r="T1000" s="11"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:T137" xr:uid="{202AB705-7DF7-4EB4-9C34-ED7EC588D9EA}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="BBSRC"/>
-        <filter val="EPSRC"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30633,20 +29610,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C49041-F246-4B03-A83A-30F6FFFE0FD8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D95885E-3D3E-41C7-BCB5-60294B0AB1EE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30672,9 +29647,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D95885E-3D3E-41C7-BCB5-60294B0AB1EE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C49041-F246-4B03-A83A-30F6FFFE0FD8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>